--- a/data/processed/X_train_con_outliers_scal.xlsx
+++ b/data/processed/X_train_con_outliers_scal.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>charges</t>
+          <t>age</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -473,7 +473,7 @@
         <v>0.4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1313133787698888</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1205901644300245</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4229005583535236</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1216013079093728</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.184696483701325</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1998262036059154</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01673301416202342</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2053976446840313</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -633,7 +633,7 @@
         <v>0.2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08928170799756281</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -653,7 +653,7 @@
         <v>0.2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6169642855938747</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -673,7 +673,7 @@
         <v>0.4</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4270962116436683</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         <v>0.2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1289413463981795</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1279674147753185</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2241649392652405</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1460053719357803</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1254801638437464</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>0.4</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6066860892358305</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02601953638424337</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>0.2</v>
       </c>
       <c r="C20" t="n">
-        <v>0.142436822491481</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>0.4</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7507276717165723</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -873,7 +873,7 @@
         <v>0.2</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05067841243919106</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02297863819707988</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01763607089985875</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1601335951864816</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -953,7 +953,7 @@
         <v>0.4</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2258740826236438</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0.8</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1564151710025262</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1409931856355758</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.151307817874434</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -1033,7 +1033,7 @@
         <v>0.4</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1331168861385804</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>0.2</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03671708821624573</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01681781024584644</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6019809843276439</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.55912164358622</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -1133,7 +1133,7 @@
         <v>0.4</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08515229732676158</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1153,7 +1153,7 @@
         <v>0.4</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3731484210806758</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>0.2</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2493699631043853</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         <v>0.4</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1920257073342035</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5828501776790461</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.02176385966762744</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7445362512904355</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1273,7 +1273,7 @@
         <v>0.4</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0651089920895753</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2116634514071252</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08609432366052938</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0.2</v>
       </c>
       <c r="C45" t="n">
-        <v>0.009735969935191154</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2390739046647991</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2007555800720994</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0.2</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01596209778479769</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1786768760021517</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3198193502473308</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1808001406589793</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6641728740053038</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -1493,7 +1493,7 @@
         <v>0.4</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1874299108818504</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3270127729316319</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -1533,7 +1533,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1111523025497123</v>
+        <v>0.5</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2285337034554879</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
@@ -1573,7 +1573,7 @@
         <v>0.2</v>
       </c>
       <c r="C57" t="n">
-        <v>0.04127917446334257</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1593,7 +1593,7 @@
         <v>0.2</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1156767417757668</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0.4</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1123471912121362</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2081949076578854</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -1653,7 +1653,7 @@
         <v>0.2</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1573113537671779</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2726005270909279</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1542115505671187</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1967630388212012</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1760622178362219</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -1753,7 +1753,7 @@
         <v>0.2</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2153290274180754</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.511240536417251</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.07447355111066317</v>
+        <v>0.5</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.02002724156467384</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -1833,7 +1833,7 @@
         <v>0.4</v>
       </c>
       <c r="C70" t="n">
-        <v>0.05235911311693126</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0.2</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1345263979594668</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
@@ -1873,7 +1873,7 @@
         <v>0.2</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6684333237043646</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -1893,7 +1893,7 @@
         <v>0.4</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1252851784008881</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.213666917295476</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>0.4</v>
       </c>
       <c r="C75" t="n">
-        <v>0.09780268222771994</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0681670382003758</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.04529376676299314</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0175952557181786</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0.2</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4427830246564111</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>0.2</v>
       </c>
       <c r="C80" t="n">
-        <v>0.07096994448578443</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0.008139034774001044</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>0.8</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1655653760978015</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1123260202531938</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>0.4</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1726989162350722</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         <v>0.4</v>
       </c>
       <c r="C85" t="n">
-        <v>0.02914699815537519</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>0.2</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1421670578834787</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.02198532995734765</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -2193,7 +2193,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6321932710070853</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5723987711871127</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7040479749846084</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0333514035401187</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -2273,7 +2273,7 @@
         <v>0.2</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1076968975164628</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.08237131276082646</v>
+        <v>0.5</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0123409918497536</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0.2</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3359221205462237</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>0.2</v>
       </c>
       <c r="C96" t="n">
-        <v>0.09332214825838102</v>
+        <v>0.5</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
@@ -2373,7 +2373,7 @@
         <v>0.2</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2612231509425705</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -2393,7 +2393,7 @@
         <v>0.4</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6773702859668776</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -2413,7 +2413,7 @@
         <v>0.2</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07086533418036017</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1873455979526921</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0.4</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07918611726083445</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         <v>0.2</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1373837600052195</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0.4</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1504618238173135</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         <v>0.2</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3005146490770748</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0.2</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1700681010192637</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2553,7 +2553,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.08522912867914291</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0.2</v>
       </c>
       <c r="C107" t="n">
-        <v>0.04734536347789599</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
@@ -2593,7 +2593,7 @@
         <v>0.2</v>
       </c>
       <c r="C108" t="n">
-        <v>0.02380626830998482</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1714061165238723</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0.2</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3247106174133429</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -2653,7 +2653,7 @@
         <v>0.2</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1575639330355255</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
@@ -2673,7 +2673,7 @@
         <v>0.2</v>
       </c>
       <c r="C112" t="n">
-        <v>0.139946579905268</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.03382686595955429</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0.2</v>
       </c>
       <c r="C114" t="n">
-        <v>0.03559269783849434</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0788640035769687</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>0.116268975519804</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1349098958741035</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>0.4</v>
       </c>
       <c r="C118" t="n">
-        <v>0.3716469465444523</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D118" t="n">
         <v>1</v>
@@ -2813,7 +2813,7 @@
         <v>0.2</v>
       </c>
       <c r="C119" t="n">
-        <v>0.7614347695134642</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1744004203813886</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1024763015569261</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1924191481488752</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
@@ -2893,7 +2893,7 @@
         <v>0.8</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1612433168584713</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0.4</v>
       </c>
       <c r="C124" t="n">
-        <v>0.080697095628258</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0.04665561220398311</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1043628716717464</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0.4</v>
       </c>
       <c r="C127" t="n">
-        <v>0.03843205952611749</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D127" t="n">
         <v>1</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1137903432865933</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -3013,7 +3013,7 @@
         <v>0.2</v>
       </c>
       <c r="C129" t="n">
-        <v>0.268490277162843</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1743144936831146</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1369722594548247</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0.05332363461131499</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0.01755229236904161</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>0.166605544646264</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -3133,7 +3133,7 @@
         <v>0.2</v>
       </c>
       <c r="C135" t="n">
-        <v>0.01371225636652938</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2002108581635372</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3819878443397725</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -3193,7 +3193,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>0.4262312359526818</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0.6699389759829931</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -3233,7 +3233,7 @@
         <v>0.4</v>
       </c>
       <c r="C140" t="n">
-        <v>0.6668243926425104</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6597291037136305</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -3273,7 +3273,7 @@
         <v>0.2</v>
       </c>
       <c r="C142" t="n">
-        <v>0.05597709888144735</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0.2</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0385332145436369</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -3313,7 +3313,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1848664760576832</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C145" t="n">
-        <v>0.09153450202767072</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0.7278445395317155</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>0.01699757794355124</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0.4</v>
       </c>
       <c r="C148" t="n">
-        <v>0.08680466513171704</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -3413,7 +3413,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1785005001477998</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0.2992251296118878</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -3453,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0.06170691870935244</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>0.02279604396324764</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1699081971600533</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -3513,7 +3513,7 @@
         <v>0.4</v>
       </c>
       <c r="C154" t="n">
-        <v>0.3598379873675192</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -3533,7 +3533,7 @@
         <v>0.2</v>
       </c>
       <c r="C155" t="n">
-        <v>0.04803207754723338</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -3553,7 +3553,7 @@
         <v>0.2</v>
       </c>
       <c r="C156" t="n">
-        <v>0.08912059543829906</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>0.001967465985483356</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
@@ -3593,7 +3593,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C158" t="n">
-        <v>0.2967273208561619</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D158" t="n">
         <v>1</v>
@@ -3613,7 +3613,7 @@
         <v>0.4</v>
       </c>
       <c r="C159" t="n">
-        <v>0.1217151111676927</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D159" t="n">
         <v>1</v>
@@ -3633,7 +3633,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C160" t="n">
-        <v>0.07890719467577927</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0.03334484597630306</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0.4</v>
       </c>
       <c r="C162" t="n">
-        <v>0.06918976681758407</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>0.4</v>
       </c>
       <c r="C163" t="n">
-        <v>0.1871987091739349</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -3713,7 +3713,7 @@
         <v>0.2</v>
       </c>
       <c r="C164" t="n">
-        <v>0.2915033485077144</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D164" t="n">
         <v>1</v>
@@ -3733,7 +3733,7 @@
         <v>0.4</v>
       </c>
       <c r="C165" t="n">
-        <v>0.115458185055085</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0.1012878948128905</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>0.05246619531970553</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C168" t="n">
-        <v>0.09160684183113242</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0.02172777598541586</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0.2</v>
       </c>
       <c r="C170" t="n">
-        <v>0.0789796369665941</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -3853,7 +3853,7 @@
         <v>0.4</v>
       </c>
       <c r="C171" t="n">
-        <v>0.2876847912515606</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D171" t="n">
         <v>1</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.1618431655755228</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0.2</v>
       </c>
       <c r="C173" t="n">
-        <v>0.145492007903703</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D173" t="n">
         <v>1</v>
@@ -3913,7 +3913,7 @@
         <v>0.8</v>
       </c>
       <c r="C174" t="n">
-        <v>0.3831040612697742</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>0.01142671356014443</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D175" t="n">
         <v>1</v>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>0.1009122087120575</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -3973,7 +3973,7 @@
         <v>0.4</v>
       </c>
       <c r="C177" t="n">
-        <v>0.6341529601546078</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D177" t="n">
         <v>1</v>
@@ -3993,7 +3993,7 @@
         <v>0.2</v>
       </c>
       <c r="C178" t="n">
-        <v>0.6279976681472257</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>0.01019830665290345</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>0.7654257734540657</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D180" t="n">
         <v>1</v>
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>0.5606497788245892</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D181" t="n">
         <v>1</v>
@@ -4073,7 +4073,7 @@
         <v>0.2</v>
       </c>
       <c r="C182" t="n">
-        <v>0.5537287683382457</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>0.002299866634069593</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D183" t="n">
         <v>1</v>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>0.1929527900358179</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D184" t="n">
         <v>1</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>0.002270470658344279</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D185" t="n">
         <v>1</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>0.1191228416080672</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D186" t="n">
         <v>1</v>
@@ -4173,7 +4173,7 @@
         <v>0.4</v>
       </c>
       <c r="C187" t="n">
-        <v>0.5694181038413019</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D187" t="n">
         <v>1</v>
@@ -4193,7 +4193,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C188" t="n">
-        <v>0.2283948640009084</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D188" t="n">
         <v>1</v>
@@ -4213,7 +4213,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C189" t="n">
-        <v>0.1541975000390424</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D189" t="n">
         <v>1</v>
@@ -4233,7 +4233,7 @@
         <v>0.2</v>
       </c>
       <c r="C190" t="n">
-        <v>0.08575962030006494</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D190" t="n">
         <v>1</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0.1790720891973189</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D191" t="n">
         <v>1</v>
@@ -4273,7 +4273,7 @@
         <v>0.4</v>
       </c>
       <c r="C192" t="n">
-        <v>0.346079787547374</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
@@ -4293,7 +4293,7 @@
         <v>0.4</v>
       </c>
       <c r="C193" t="n">
-        <v>0.123820264031729</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D193" t="n">
         <v>1</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>0.3393892564771241</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D194" t="n">
         <v>1</v>
@@ -4333,7 +4333,7 @@
         <v>0.4</v>
       </c>
       <c r="C195" t="n">
-        <v>0.1750334994025985</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>0.2</v>
       </c>
       <c r="C196" t="n">
-        <v>0.1429696290251566</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -4373,7 +4373,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C197" t="n">
-        <v>0.09933695287961693</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -4393,7 +4393,7 @@
         <v>0.2</v>
       </c>
       <c r="C198" t="n">
-        <v>0.02141141867454977</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D198" t="n">
         <v>1</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>0.05262920389500178</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C200" t="n">
-        <v>0.1185627864527315</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D200" t="n">
         <v>1</v>
@@ -4453,7 +4453,7 @@
         <v>0.2</v>
       </c>
       <c r="C201" t="n">
-        <v>0.07103167603480759</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D201" t="n">
         <v>1</v>
@@ -4473,7 +4473,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C202" t="n">
-        <v>0.3341096853903279</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0.4</v>
       </c>
       <c r="C203" t="n">
-        <v>0.1813507978867132</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>0.01053598865374161</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D204" t="n">
         <v>1</v>
@@ -4533,7 +4533,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C205" t="n">
-        <v>0.6259135821279953</v>
+        <v>0.5</v>
       </c>
       <c r="D205" t="n">
         <v>1</v>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>0.548502538502498</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>0.02888271906093934</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D207" t="n">
         <v>1</v>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>0.0004477233225855422</v>
+        <v>0</v>
       </c>
       <c r="D208" t="n">
         <v>1</v>
@@ -4613,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="C209" t="n">
-        <v>0.2912167743470187</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
@@ -4633,7 +4633,7 @@
         <v>0.2</v>
       </c>
       <c r="C210" t="n">
-        <v>0.05768140743963722</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D210" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         <v>0.2</v>
       </c>
       <c r="C211" t="n">
-        <v>0.1760709756245626</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D211" t="n">
         <v>1</v>
@@ -4673,7 +4673,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C212" t="n">
-        <v>0.1847673732274011</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D212" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>0.04286163775956022</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D213" t="n">
         <v>0</v>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>0.08238442788845776</v>
+        <v>0.5</v>
       </c>
       <c r="D214" t="n">
         <v>0</v>
@@ -4733,7 +4733,7 @@
         <v>0.4</v>
       </c>
       <c r="C215" t="n">
-        <v>0.1276448439653222</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D215" t="n">
         <v>1</v>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>0.01294015894456782</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D216" t="n">
         <v>1</v>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>0.01392430758046379</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D217" t="n">
         <v>1</v>
@@ -4793,7 +4793,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C218" t="n">
-        <v>0.05441179652313376</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D218" t="n">
         <v>0</v>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>0.016511987170775</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>0.02611835208725847</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D220" t="n">
         <v>1</v>
@@ -4853,7 +4853,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C221" t="n">
-        <v>0.3870662143697619</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D221" t="n">
         <v>1</v>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>0.189932421366909</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
@@ -4893,7 +4893,7 @@
         <v>0.8</v>
       </c>
       <c r="C223" t="n">
-        <v>0.6354276425419529</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D223" t="n">
         <v>1</v>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>0.5333518981636063</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>0.186302081484028</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D225" t="n">
         <v>1</v>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>0.3758758381099938</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D226" t="n">
         <v>0</v>
@@ -4973,7 +4973,7 @@
         <v>0.4</v>
       </c>
       <c r="C227" t="n">
-        <v>0.05387115621407879</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D227" t="n">
         <v>1</v>
@@ -4993,7 +4993,7 @@
         <v>0.2</v>
       </c>
       <c r="C228" t="n">
-        <v>0.1538585223052399</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D228" t="n">
         <v>0</v>
@@ -5013,7 +5013,7 @@
         <v>0.4</v>
       </c>
       <c r="C229" t="n">
-        <v>0.09822876119739872</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D229" t="n">
         <v>1</v>
@@ -5033,7 +5033,7 @@
         <v>0.4</v>
       </c>
       <c r="C230" t="n">
-        <v>0.1637484819286537</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D230" t="n">
         <v>0</v>
@@ -5053,7 +5053,7 @@
         <v>0.4</v>
       </c>
       <c r="C231" t="n">
-        <v>0.2133233276307835</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D231" t="n">
         <v>0</v>
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>0.1456000596693733</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D232" t="n">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>0.2</v>
       </c>
       <c r="C233" t="n">
-        <v>0.08569087894144575</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D233" t="n">
         <v>1</v>
@@ -5113,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>0.1424054694953462</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D234" t="n">
         <v>0</v>
@@ -5133,7 +5133,7 @@
         <v>0.8</v>
       </c>
       <c r="C235" t="n">
-        <v>0.1145392533516096</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D235" t="n">
         <v>1</v>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>0.01146832017194025</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D236" t="n">
         <v>1</v>
@@ -5173,7 +5173,7 @@
         <v>0.2</v>
       </c>
       <c r="C237" t="n">
-        <v>0.1458244085522892</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D237" t="n">
         <v>1</v>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>0.05611652967178651</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D238" t="n">
         <v>0</v>
@@ -5213,7 +5213,7 @@
         <v>0.2</v>
       </c>
       <c r="C239" t="n">
-        <v>0.1322187927168457</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D239" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
         <v>0.2</v>
       </c>
       <c r="C240" t="n">
-        <v>0.4961384646723196</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D240" t="n">
         <v>0</v>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>0.009535024771410421</v>
+        <v>0</v>
       </c>
       <c r="D241" t="n">
         <v>1</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>0.136092961074902</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D242" t="n">
         <v>1</v>
@@ -5293,7 +5293,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C243" t="n">
-        <v>0.2782056176952799</v>
+        <v>0</v>
       </c>
       <c r="D243" t="n">
         <v>0</v>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>0.1854814636208942</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D244" t="n">
         <v>1</v>
@@ -5333,7 +5333,7 @@
         <v>0.2</v>
       </c>
       <c r="C245" t="n">
-        <v>0.7783893922417955</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D245" t="n">
         <v>1</v>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>0.6392794279874466</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D246" t="n">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0.2</v>
       </c>
       <c r="C247" t="n">
-        <v>0.1174705949984738</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D247" t="n">
         <v>1</v>
@@ -5393,7 +5393,7 @@
         <v>0.2</v>
       </c>
       <c r="C248" t="n">
-        <v>0.06498392010276349</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D248" t="n">
         <v>1</v>
@@ -5413,7 +5413,7 @@
         <v>0.4</v>
       </c>
       <c r="C249" t="n">
-        <v>0.5677333663005975</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D249" t="n">
         <v>0</v>
@@ -5433,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>0.001947114925365832</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D250" t="n">
         <v>1</v>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>0.6128225048622313</v>
+        <v>0</v>
       </c>
       <c r="D251" t="n">
         <v>0</v>
@@ -5473,7 +5473,7 @@
         <v>0.2</v>
       </c>
       <c r="C252" t="n">
-        <v>0.1382080763603739</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D252" t="n">
         <v>1</v>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>0.03391221026937727</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D253" t="n">
         <v>0</v>
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>0.2069696648443238</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D254" t="n">
         <v>0</v>
@@ -5533,7 +5533,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C255" t="n">
-        <v>0.05413265025536346</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D255" t="n">
         <v>1</v>
@@ -5553,7 +5553,7 @@
         <v>0.2</v>
       </c>
       <c r="C256" t="n">
-        <v>0.1158060840689582</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D256" t="n">
         <v>0</v>
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>0.01001288588294379</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D257" t="n">
         <v>0</v>
@@ -5593,7 +5593,7 @@
         <v>0.8</v>
       </c>
       <c r="C258" t="n">
-        <v>0.260391931006775</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D258" t="n">
         <v>1</v>
@@ -5613,7 +5613,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C259" t="n">
-        <v>0.07000292018516643</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D259" t="n">
         <v>1</v>
@@ -5633,7 +5633,7 @@
         <v>0.4</v>
       </c>
       <c r="C260" t="n">
-        <v>0.1016723037262216</v>
+        <v>0.5</v>
       </c>
       <c r="D260" t="n">
         <v>0</v>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="C261" t="n">
-        <v>0.03402821131204716</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D261" t="n">
         <v>0</v>
@@ -5673,7 +5673,7 @@
         <v>0.4</v>
       </c>
       <c r="C262" t="n">
-        <v>0.1813336125470584</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D262" t="n">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>0.2734204696762796</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D263" t="n">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>0.2</v>
       </c>
       <c r="C264" t="n">
-        <v>0.3343919868044689</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D264" t="n">
         <v>0</v>
@@ -5733,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>0.2035718333017713</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D265" t="n">
         <v>0</v>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>0.07881787450736896</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D266" t="n">
         <v>1</v>
@@ -5773,7 +5773,7 @@
         <v>0.4</v>
       </c>
       <c r="C267" t="n">
-        <v>0.06727780749451</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D267" t="n">
         <v>1</v>
@@ -5793,7 +5793,7 @@
         <v>0.4</v>
       </c>
       <c r="C268" t="n">
-        <v>0.1469784031340389</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D268" t="n">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>0.6962520597349021</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D269" t="n">
         <v>1</v>
@@ -5833,7 +5833,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C270" t="n">
-        <v>0.2095176598674058</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D270" t="n">
         <v>0</v>
@@ -5853,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>0.1792829927155768</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D271" t="n">
         <v>1</v>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>0.03961296273180036</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D272" t="n">
         <v>0</v>
@@ -5893,7 +5893,7 @@
         <v>0.2</v>
       </c>
       <c r="C273" t="n">
-        <v>0.01967830547639419</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D273" t="n">
         <v>0</v>
@@ -5913,7 +5913,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C274" t="n">
-        <v>0.1219018105893912</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D274" t="n">
         <v>1</v>
@@ -5933,7 +5933,7 @@
         <v>0.4</v>
       </c>
       <c r="C275" t="n">
-        <v>0.7544146208956393</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D275" t="n">
         <v>1</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>0.1839742252284674</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D276" t="n">
         <v>0</v>
@@ -5973,7 +5973,7 @@
         <v>0.2</v>
       </c>
       <c r="C277" t="n">
-        <v>0.06313397945597962</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D277" t="n">
         <v>0</v>
@@ -5993,7 +5993,7 @@
         <v>0.4</v>
       </c>
       <c r="C278" t="n">
-        <v>0.1076680579006544</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D278" t="n">
         <v>1</v>
@@ -6013,7 +6013,7 @@
         <v>0.2</v>
       </c>
       <c r="C279" t="n">
-        <v>0.6369145144198199</v>
+        <v>0.5</v>
       </c>
       <c r="D279" t="n">
         <v>1</v>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>0.0002288363648770553</v>
+        <v>0</v>
       </c>
       <c r="D280" t="n">
         <v>1</v>
@@ -6053,7 +6053,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C281" t="n">
-        <v>0.1727619892296727</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D281" t="n">
         <v>0</v>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>0.1666489602411813</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D282" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C283" t="n">
-        <v>0.1396234690031886</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D283" t="n">
         <v>0</v>
@@ -6113,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>0.3173595657637138</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D284" t="n">
         <v>1</v>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>0.2439106374968297</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D285" t="n">
         <v>0</v>
@@ -6153,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>0.06955707335721281</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D286" t="n">
         <v>0</v>
@@ -6173,7 +6173,7 @@
         <v>0.4</v>
       </c>
       <c r="C287" t="n">
-        <v>0.01923066674654455</v>
+        <v>0</v>
       </c>
       <c r="D287" t="n">
         <v>1</v>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>0.1600341011147959</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D288" t="n">
         <v>1</v>
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>0.3095353784829213</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D289" t="n">
         <v>1</v>
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>0.2943311784159726</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D290" t="n">
         <v>1</v>
@@ -6253,7 +6253,7 @@
         <v>0.2</v>
       </c>
       <c r="C291" t="n">
-        <v>0.2993296764727601</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D291" t="n">
         <v>0</v>
@@ -6273,7 +6273,7 @@
         <v>0.4</v>
       </c>
       <c r="C292" t="n">
-        <v>0.7079651229596354</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D292" t="n">
         <v>0</v>
@@ -6293,7 +6293,7 @@
         <v>0.4</v>
       </c>
       <c r="C293" t="n">
-        <v>0.138415239903635</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D293" t="n">
         <v>1</v>
@@ -6313,7 +6313,7 @@
         <v>0.2</v>
       </c>
       <c r="C294" t="n">
-        <v>0.08118428390231605</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D294" t="n">
         <v>0</v>
@@ -6333,7 +6333,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C295" t="n">
-        <v>0.1217540563618745</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D295" t="n">
         <v>1</v>
@@ -6353,7 +6353,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C296" t="n">
-        <v>0.4727930761328495</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D296" t="n">
         <v>1</v>
@@ -6373,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="C297" t="n">
-        <v>0.8372884151584261</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D297" t="n">
         <v>1</v>
@@ -6393,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>0.0002537098827984745</v>
+        <v>0</v>
       </c>
       <c r="D298" t="n">
         <v>1</v>
@@ -6413,7 +6413,7 @@
         <v>0.2</v>
       </c>
       <c r="C299" t="n">
-        <v>0.3450357596180144</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D299" t="n">
         <v>0</v>
@@ -6433,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>0.00790024900195542</v>
+        <v>0</v>
       </c>
       <c r="D300" t="n">
         <v>0</v>
@@ -6453,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>0.04450692824340928</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D301" t="n">
         <v>1</v>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>0.7044285869855241</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D302" t="n">
         <v>0</v>
@@ -6493,7 +6493,7 @@
         <v>0.2</v>
       </c>
       <c r="C303" t="n">
-        <v>0.1221009467700504</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D303" t="n">
         <v>1</v>
@@ -6513,7 +6513,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C304" t="n">
-        <v>0.04690908945675785</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D304" t="n">
         <v>1</v>
@@ -6533,7 +6533,7 @@
         <v>0.2</v>
       </c>
       <c r="C305" t="n">
-        <v>0.1578529701462625</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D305" t="n">
         <v>1</v>
@@ -6553,7 +6553,7 @@
         <v>0.4</v>
       </c>
       <c r="C306" t="n">
-        <v>0.1524633082835041</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D306" t="n">
         <v>0</v>
@@ -6573,7 +6573,7 @@
         <v>0.2</v>
       </c>
       <c r="C307" t="n">
-        <v>0.05850449313316262</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D307" t="n">
         <v>0</v>
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>0.09801745830382035</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D308" t="n">
         <v>1</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>0.1499415630370852</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D309" t="n">
         <v>0</v>
@@ -6633,7 +6633,7 @@
         <v>0.4</v>
       </c>
       <c r="C310" t="n">
-        <v>0.05395047329146888</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D310" t="n">
         <v>1</v>
@@ -6653,7 +6653,7 @@
         <v>0.4</v>
       </c>
       <c r="C311" t="n">
-        <v>0.3690417757792103</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D311" t="n">
         <v>1</v>
@@ -6673,7 +6673,7 @@
         <v>0.2</v>
       </c>
       <c r="C312" t="n">
-        <v>0.03822185633810583</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D312" t="n">
         <v>1</v>
@@ -6693,7 +6693,7 @@
         <v>0.4</v>
       </c>
       <c r="C313" t="n">
-        <v>0.1582251879449237</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D313" t="n">
         <v>0</v>
@@ -6713,7 +6713,7 @@
         <v>0.4</v>
       </c>
       <c r="C314" t="n">
-        <v>0.1461721269932069</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D314" t="n">
         <v>0</v>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>0.2663765404136096</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D315" t="n">
         <v>0</v>
@@ -6753,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>0.1024483753799871</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D316" t="n">
         <v>0</v>
@@ -6773,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>0.01502840952925789</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D317" t="n">
         <v>1</v>
@@ -6793,7 +6793,7 @@
         <v>0.2</v>
       </c>
       <c r="C318" t="n">
-        <v>0.1243411560039097</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D318" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         <v>0.2</v>
       </c>
       <c r="C319" t="n">
-        <v>0.05399845933429993</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D319" t="n">
         <v>1</v>
@@ -6833,7 +6833,7 @@
         <v>0.2</v>
       </c>
       <c r="C320" t="n">
-        <v>0.1403431994546695</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D320" t="n">
         <v>1</v>
@@ -6853,7 +6853,7 @@
         <v>0.2</v>
       </c>
       <c r="C321" t="n">
-        <v>0.1057857556520386</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D321" t="n">
         <v>0</v>
@@ -6873,7 +6873,7 @@
         <v>0.4</v>
       </c>
       <c r="C322" t="n">
-        <v>0.03147035554149091</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D322" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0.4</v>
       </c>
       <c r="C323" t="n">
-        <v>0.1060408222721782</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D323" t="n">
         <v>0</v>
@@ -6913,7 +6913,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C324" t="n">
-        <v>0.2347987675519676</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D324" t="n">
         <v>1</v>
@@ -6933,7 +6933,7 @@
         <v>0.8</v>
       </c>
       <c r="C325" t="n">
-        <v>0.1510502850506862</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D325" t="n">
         <v>1</v>
@@ -6953,7 +6953,7 @@
         <v>0.2</v>
       </c>
       <c r="C326" t="n">
-        <v>0.01155374256736561</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D326" t="n">
         <v>1</v>
@@ -6973,7 +6973,7 @@
         <v>0.2</v>
       </c>
       <c r="C327" t="n">
-        <v>0.04927778692253269</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D327" t="n">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>0.08519306045137348</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D328" t="n">
         <v>1</v>
@@ -7013,7 +7013,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C329" t="n">
-        <v>0.09808231815728843</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D329" t="n">
         <v>0</v>
@@ -7033,7 +7033,7 @@
         <v>0.4</v>
       </c>
       <c r="C330" t="n">
-        <v>0.2931903313348435</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D330" t="n">
         <v>0</v>
@@ -7053,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>0.1481090338528464</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D331" t="n">
         <v>1</v>
@@ -7073,7 +7073,7 @@
         <v>0.4</v>
       </c>
       <c r="C332" t="n">
-        <v>0.6161714076409825</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D332" t="n">
         <v>1</v>
@@ -7093,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>0.008340510269164537</v>
+        <v>0</v>
       </c>
       <c r="D333" t="n">
         <v>0</v>
@@ -7113,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="C334" t="n">
-        <v>0.5425479907511489</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D334" t="n">
         <v>1</v>
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="C336" t="n">
-        <v>0.6668151053361786</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D336" t="n">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>0.523591243417366</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D337" t="n">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0.2</v>
       </c>
       <c r="C338" t="n">
-        <v>0.1270365009988379</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D338" t="n">
         <v>0</v>
@@ -7213,7 +7213,7 @@
         <v>0.4</v>
       </c>
       <c r="C339" t="n">
-        <v>0.1575534028666893</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D339" t="n">
         <v>0</v>
@@ -7233,7 +7233,7 @@
         <v>0.4</v>
       </c>
       <c r="C340" t="n">
-        <v>0.1812827698726073</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D340" t="n">
         <v>0</v>
@@ -7253,7 +7253,7 @@
         <v>0.2</v>
       </c>
       <c r="C341" t="n">
-        <v>0.03424781161426896</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D341" t="n">
         <v>0</v>
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>0.03342945498003706</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D342" t="n">
         <v>0</v>
@@ -7293,7 +7293,7 @@
         <v>0.4</v>
       </c>
       <c r="C343" t="n">
-        <v>0.2980656267416043</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D343" t="n">
         <v>0</v>
@@ -7313,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>0.1228110401567722</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D344" t="n">
         <v>0</v>
@@ -7333,7 +7333,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C345" t="n">
-        <v>0.1024328249576319</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D345" t="n">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>0.4</v>
       </c>
       <c r="C346" t="n">
-        <v>0.298034517762977</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D346" t="n">
         <v>1</v>
@@ -7373,7 +7373,7 @@
         <v>0.2</v>
       </c>
       <c r="C347" t="n">
-        <v>0.6492874367738092</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D347" t="n">
         <v>1</v>
@@ -7393,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>0.1664419618164336</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D348" t="n">
         <v>1</v>
@@ -7413,7 +7413,7 @@
         <v>0.2</v>
       </c>
       <c r="C349" t="n">
-        <v>0.04748067199914341</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D349" t="n">
         <v>1</v>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>0.01782296146860469</v>
+        <v>0</v>
       </c>
       <c r="D350" t="n">
         <v>0</v>
@@ -7453,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>0.08343057974620179</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D351" t="n">
         <v>1</v>
@@ -7473,7 +7473,7 @@
         <v>1</v>
       </c>
       <c r="C352" t="n">
-        <v>0.09236199467737982</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D352" t="n">
         <v>1</v>
@@ -7493,7 +7493,7 @@
         <v>0.4</v>
       </c>
       <c r="C353" t="n">
-        <v>0.7510725660615376</v>
+        <v>1</v>
       </c>
       <c r="D353" t="n">
         <v>0</v>
@@ -7513,7 +7513,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C354" t="n">
-        <v>0.7321932812720886</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D354" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>0.2057592062381441</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D355" t="n">
         <v>1</v>
@@ -7553,7 +7553,7 @@
         <v>0.2</v>
       </c>
       <c r="C356" t="n">
-        <v>0.7529079844130641</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D356" t="n">
         <v>1</v>
@@ -7573,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="C357" t="n">
-        <v>0.07790779657245393</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D357" t="n">
         <v>0</v>
@@ -7593,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="C358" t="n">
-        <v>0.1012381477770477</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -7613,7 +7613,7 @@
         <v>0.2</v>
       </c>
       <c r="C359" t="n">
-        <v>0.3471583369588628</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D359" t="n">
         <v>1</v>
@@ -7633,7 +7633,7 @@
         <v>0.2</v>
       </c>
       <c r="C360" t="n">
-        <v>0.146154454431929</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>0.4296666614831383</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>0.006679504244446952</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D362" t="n">
         <v>1</v>
@@ -7693,7 +7693,7 @@
         <v>0.4</v>
       </c>
       <c r="C363" t="n">
-        <v>0.6298034131564602</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -7713,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>0.7253556073195172</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D364" t="n">
         <v>1</v>
@@ -7733,7 +7733,7 @@
         <v>0.2</v>
       </c>
       <c r="C365" t="n">
-        <v>0.5863462506700796</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D365" t="n">
         <v>1</v>
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>0.1743733027157908</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -7773,7 +7773,7 @@
         <v>0.4</v>
       </c>
       <c r="C367" t="n">
-        <v>0.09890561451926189</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -7793,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="C368" t="n">
-        <v>0.1939133454323146</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -7813,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>0.01843019984917216</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D369" t="n">
         <v>1</v>
@@ -7833,7 +7833,7 @@
         <v>0.2</v>
       </c>
       <c r="C370" t="n">
-        <v>0.2527345212330198</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -7853,7 +7853,7 @@
         <v>0.2</v>
       </c>
       <c r="C371" t="n">
-        <v>0.6303758017700118</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D371" t="n">
         <v>1</v>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>0.0347859173948137</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D372" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         <v>0.4</v>
       </c>
       <c r="C373" t="n">
-        <v>0.05773073720554241</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D373" t="n">
         <v>1</v>
@@ -7913,7 +7913,7 @@
         <v>0.4</v>
       </c>
       <c r="C374" t="n">
-        <v>0.6055325696748285</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D374" t="n">
         <v>1</v>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="C375" t="n">
-        <v>0.273017412619676</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D375" t="n">
         <v>1</v>
@@ -7953,7 +7953,7 @@
         <v>0.2</v>
       </c>
       <c r="C376" t="n">
-        <v>0.06315139091852462</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D376" t="n">
         <v>0</v>
@@ -7973,7 +7973,7 @@
         <v>0.4</v>
       </c>
       <c r="C377" t="n">
-        <v>0.6201227994062154</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D377" t="n">
         <v>1</v>
@@ -7993,7 +7993,7 @@
         <v>0.2</v>
       </c>
       <c r="C378" t="n">
-        <v>0.1233359177482405</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D378" t="n">
         <v>1</v>
@@ -8013,7 +8013,7 @@
         <v>0.2</v>
       </c>
       <c r="C379" t="n">
-        <v>0.1438432141418393</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D379" t="n">
         <v>1</v>
@@ -8033,7 +8033,7 @@
         <v>0.2</v>
       </c>
       <c r="C380" t="n">
-        <v>0.4724950733308554</v>
+        <v>1</v>
       </c>
       <c r="D380" t="n">
         <v>1</v>
@@ -8053,7 +8053,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C381" t="n">
-        <v>0.7715395076531536</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D381" t="n">
         <v>1</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="C382" t="n">
-        <v>0.02799510131079748</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D382" t="n">
         <v>0</v>
@@ -8093,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>0.2640400613927291</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D383" t="n">
         <v>1</v>
@@ -8113,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>0.54753853920558</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D384" t="n">
         <v>1</v>
@@ -8133,7 +8133,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C385" t="n">
-        <v>0.06533784797585294</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D385" t="n">
         <v>0</v>
@@ -8153,7 +8153,7 @@
         <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>0.2851189671706392</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D386" t="n">
         <v>1</v>
@@ -8173,7 +8173,7 @@
         <v>0.4</v>
       </c>
       <c r="C387" t="n">
-        <v>0.568777888121392</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D387" t="n">
         <v>1</v>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>0.1216745375633449</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D388" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0.4</v>
       </c>
       <c r="C389" t="n">
-        <v>0.2870599800315366</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D389" t="n">
         <v>1</v>
@@ -8233,7 +8233,7 @@
         <v>0.4</v>
       </c>
       <c r="C390" t="n">
-        <v>0.1904569854772195</v>
+        <v>0</v>
       </c>
       <c r="D390" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         <v>0.2</v>
       </c>
       <c r="C391" t="n">
-        <v>0.09802344161310191</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D391" t="n">
         <v>1</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>0.4522663269889171</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D392" t="n">
         <v>0</v>
@@ -8293,7 +8293,7 @@
         <v>0.2</v>
       </c>
       <c r="C393" t="n">
-        <v>0.05922231862130237</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D393" t="n">
         <v>1</v>
@@ -8313,7 +8313,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C394" t="n">
-        <v>0.1940013763748941</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D394" t="n">
         <v>0</v>
@@ -8333,7 +8333,7 @@
         <v>0.2</v>
       </c>
       <c r="C395" t="n">
-        <v>0.2316089015568839</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D395" t="n">
         <v>0</v>
@@ -8353,7 +8353,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C396" t="n">
-        <v>0.05687569823281409</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D396" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0.4</v>
       </c>
       <c r="C397" t="n">
-        <v>0.1631485779009671</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D397" t="n">
         <v>0</v>
@@ -8393,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="C398" t="n">
-        <v>0.1604110479727505</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D398" t="n">
         <v>1</v>
@@ -8413,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>0.04576639451238437</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D399" t="n">
         <v>1</v>
@@ -8433,7 +8433,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C400" t="n">
-        <v>0.1506337121897042</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D400" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>0.4</v>
       </c>
       <c r="C401" t="n">
-        <v>0.1202824892620718</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D401" t="n">
         <v>0</v>
@@ -8473,7 +8473,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C402" t="n">
-        <v>0.3192418450746839</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D402" t="n">
         <v>1</v>
@@ -8493,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="C403" t="n">
-        <v>0.0929787196452435</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D403" t="n">
         <v>1</v>
@@ -8513,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>0.1806132500902333</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D404" t="n">
         <v>0</v>
@@ -8533,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>0.4266104100397656</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D405" t="n">
         <v>1</v>
@@ -8553,7 +8553,7 @@
         <v>0.2</v>
       </c>
       <c r="C406" t="n">
-        <v>0.1515222173501813</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D406" t="n">
         <v>1</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="C407" t="n">
-        <v>0.5483362975086203</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D407" t="n">
         <v>1</v>
@@ -8593,7 +8593,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C408" t="n">
-        <v>0.1116614532128284</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D408" t="n">
         <v>0</v>
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>0.12462128810241</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D409" t="n">
         <v>1</v>
@@ -8633,7 +8633,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C410" t="n">
-        <v>0.3060237241606484</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D410" t="n">
         <v>1</v>
@@ -8653,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>0.1928955809445986</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D411" t="n">
         <v>1</v>
@@ -8673,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>0.157376056310693</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D412" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C413" t="n">
-        <v>0.1002038649308638</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D413" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>0.4245345560324867</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D414" t="n">
         <v>1</v>
@@ -8733,7 +8733,7 @@
         <v>0.4</v>
       </c>
       <c r="C415" t="n">
-        <v>0.632517103387595</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D415" t="n">
         <v>0</v>
@@ -8753,7 +8753,7 @@
         <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>0.009481320584989173</v>
+        <v>0</v>
       </c>
       <c r="D416" t="n">
         <v>1</v>
@@ -8773,7 +8773,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C417" t="n">
-        <v>0.1382514830079827</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D417" t="n">
         <v>1</v>
@@ -8793,7 +8793,7 @@
         <v>0</v>
       </c>
       <c r="C418" t="n">
-        <v>0.1305118056598162</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D418" t="n">
         <v>1</v>
@@ -8813,7 +8813,7 @@
         <v>0.2</v>
       </c>
       <c r="C419" t="n">
-        <v>0.09316835866451449</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D419" t="n">
         <v>1</v>
@@ -8833,7 +8833,7 @@
         <v>0.4</v>
       </c>
       <c r="C420" t="n">
-        <v>0.09363937915192362</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D420" t="n">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>0.2</v>
       </c>
       <c r="C421" t="n">
-        <v>0.1371002799865176</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D421" t="n">
         <v>0</v>
@@ -8873,7 +8873,7 @@
         <v>0.8</v>
       </c>
       <c r="C422" t="n">
-        <v>0.1691566118497642</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D422" t="n">
         <v>1</v>
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>0.03630323940403806</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D423" t="n">
         <v>0</v>
@@ -8913,7 +8913,7 @@
         <v>0.2</v>
       </c>
       <c r="C424" t="n">
-        <v>0.106026315431363</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D424" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C425" t="n">
-        <v>0.1363032854582756</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D425" t="n">
         <v>1</v>
@@ -8953,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>0.04288153657389736</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D426" t="n">
         <v>0</v>
@@ -8973,7 +8973,7 @@
         <v>0.4</v>
       </c>
       <c r="C427" t="n">
-        <v>0.2903909377627932</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D427" t="n">
         <v>1</v>
@@ -8993,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="C428" t="n">
-        <v>0.1685471374554372</v>
+        <v>0</v>
       </c>
       <c r="D428" t="n">
         <v>0</v>
@@ -9013,7 +9013,7 @@
         <v>0.4</v>
       </c>
       <c r="C429" t="n">
-        <v>0.1497182772571099</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D429" t="n">
         <v>1</v>
@@ -9033,7 +9033,7 @@
         <v>0.4</v>
       </c>
       <c r="C430" t="n">
-        <v>0.1609187768271902</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D430" t="n">
         <v>1</v>
@@ -9053,7 +9053,7 @@
         <v>0.4</v>
       </c>
       <c r="C431" t="n">
-        <v>0.05777550953780096</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D431" t="n">
         <v>1</v>
@@ -9073,7 +9073,7 @@
         <v>0.2</v>
       </c>
       <c r="C432" t="n">
-        <v>0.05897380956497837</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D432" t="n">
         <v>1</v>
@@ -9093,7 +9093,7 @@
         <v>0.2</v>
       </c>
       <c r="C433" t="n">
-        <v>0.0588309015251587</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D433" t="n">
         <v>0</v>
@@ -9113,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="C434" t="n">
-        <v>0.2102064871283573</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D434" t="n">
         <v>0</v>
@@ -9133,7 +9133,7 @@
         <v>0.2</v>
       </c>
       <c r="C435" t="n">
-        <v>0.1040515289206575</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D435" t="n">
         <v>1</v>
@@ -9153,7 +9153,7 @@
         <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>0.02550180606556689</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D436" t="n">
         <v>1</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>0.7139477506189532</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D437" t="n">
         <v>0</v>
@@ -9193,7 +9193,7 @@
         <v>0.2</v>
       </c>
       <c r="C438" t="n">
-        <v>0.1014511205637684</v>
+        <v>0.5</v>
       </c>
       <c r="D438" t="n">
         <v>0</v>
@@ -9213,7 +9213,7 @@
         <v>1</v>
       </c>
       <c r="C439" t="n">
-        <v>0.07309943158905076</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D439" t="n">
         <v>1</v>
@@ -9233,7 +9233,7 @@
         <v>0.4</v>
       </c>
       <c r="C440" t="n">
-        <v>0.0393003063531299</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D440" t="n">
         <v>1</v>
@@ -9253,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="C441" t="n">
-        <v>0.08864587401869431</v>
+        <v>0.5</v>
       </c>
       <c r="D441" t="n">
         <v>0</v>
@@ -9273,7 +9273,7 @@
         <v>0.2</v>
       </c>
       <c r="C442" t="n">
-        <v>0.1600400339937926</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D442" t="n">
         <v>0</v>
@@ -9293,7 +9293,7 @@
         <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>0.5263285724378348</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D443" t="n">
         <v>1</v>
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>0.04590329646795514</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D444" t="n">
         <v>0</v>
@@ -9333,7 +9333,7 @@
         <v>0.4</v>
       </c>
       <c r="C445" t="n">
-        <v>0.5915403341274369</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D445" t="n">
         <v>1</v>
@@ -9353,7 +9353,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C446" t="n">
-        <v>0.08833232372255506</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D446" t="n">
         <v>0</v>
@@ -9373,7 +9373,7 @@
         <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>0.06679759405420525</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D447" t="n">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>0.00830782900439787</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D448" t="n">
         <v>1</v>
@@ -9413,7 +9413,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C449" t="n">
-        <v>0.5912295282148642</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D449" t="n">
         <v>1</v>
@@ -9433,7 +9433,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C450" t="n">
-        <v>0.08997177486745193</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D450" t="n">
         <v>1</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>0.02210969754695474</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D451" t="n">
         <v>0</v>
@@ -9473,7 +9473,7 @@
         <v>0.4</v>
       </c>
       <c r="C452" t="n">
-        <v>0.03180722008367926</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D452" t="n">
         <v>1</v>
@@ -9493,7 +9493,7 @@
         <v>0.2</v>
       </c>
       <c r="C453" t="n">
-        <v>0.215190588640243</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D453" t="n">
         <v>1</v>
@@ -9513,7 +9513,7 @@
         <v>0.2</v>
       </c>
       <c r="C454" t="n">
-        <v>0.07893983933791981</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D454" t="n">
         <v>0</v>
@@ -9533,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>0.02381573049553028</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D455" t="n">
         <v>0</v>
@@ -9553,7 +9553,7 @@
         <v>0.2</v>
       </c>
       <c r="C456" t="n">
-        <v>0.1173331122812354</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D456" t="n">
         <v>1</v>
@@ -9573,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="C457" t="n">
-        <v>0.1746276738860343</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D457" t="n">
         <v>0</v>
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="C458" t="n">
-        <v>0.2564306796328163</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D458" t="n">
         <v>0</v>
@@ -9613,7 +9613,7 @@
         <v>0.4</v>
       </c>
       <c r="C459" t="n">
-        <v>0.1451314476347623</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D459" t="n">
         <v>0</v>
@@ -9633,7 +9633,7 @@
         <v>0</v>
       </c>
       <c r="C460" t="n">
-        <v>0.1558880809856574</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D460" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0.2</v>
       </c>
       <c r="C461" t="n">
-        <v>0.4513801689515046</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D461" t="n">
         <v>1</v>
@@ -9673,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>0.0175995520530923</v>
+        <v>0</v>
       </c>
       <c r="D462" t="n">
         <v>0</v>
@@ -9693,7 +9693,7 @@
         <v>0.2</v>
       </c>
       <c r="C463" t="n">
-        <v>0.05896227729757844</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D463" t="n">
         <v>1</v>
@@ -9713,7 +9713,7 @@
         <v>0.2</v>
       </c>
       <c r="C464" t="n">
-        <v>0.05421302392856062</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D464" t="n">
         <v>1</v>
@@ -9733,7 +9733,7 @@
         <v>0.4</v>
       </c>
       <c r="C465" t="n">
-        <v>0.5040879329815885</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D465" t="n">
         <v>1</v>
@@ -9753,7 +9753,7 @@
         <v>0.2</v>
       </c>
       <c r="C466" t="n">
-        <v>0.09644821424937049</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D466" t="n">
         <v>0</v>
@@ -9773,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="C467" t="n">
-        <v>0.009320208025725439</v>
+        <v>0</v>
       </c>
       <c r="D467" t="n">
         <v>1</v>
@@ -9793,7 +9793,7 @@
         <v>0.8</v>
       </c>
       <c r="C468" t="n">
-        <v>0.10395785303974</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D468" t="n">
         <v>1</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>0.03682265263012394</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D469" t="n">
         <v>0</v>
@@ -9833,7 +9833,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C470" t="n">
-        <v>0.1558583498925553</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D470" t="n">
         <v>0</v>
@@ -9853,7 +9853,7 @@
         <v>0.2</v>
       </c>
       <c r="C471" t="n">
-        <v>0.7735947752047594</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D471" t="n">
         <v>1</v>
@@ -9873,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>0.01403229834175727</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D472" t="n">
         <v>1</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="C473" t="n">
-        <v>0.0147240196503466</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D473" t="n">
         <v>0</v>
@@ -9913,7 +9913,7 @@
         <v>0</v>
       </c>
       <c r="C474" t="n">
-        <v>0.008263402363608136</v>
+        <v>0</v>
       </c>
       <c r="D474" t="n">
         <v>0</v>
@@ -9933,7 +9933,7 @@
         <v>0</v>
       </c>
       <c r="C475" t="n">
-        <v>0.008295737936905984</v>
+        <v>0</v>
       </c>
       <c r="D475" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0.4</v>
       </c>
       <c r="C476" t="n">
-        <v>0.05379795340203254</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D476" t="n">
         <v>1</v>
@@ -9973,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="C477" t="n">
-        <v>0.01647976465892224</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D477" t="n">
         <v>0</v>
@@ -9993,7 +9993,7 @@
         <v>0.4</v>
       </c>
       <c r="C478" t="n">
-        <v>0.7513043826935718</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D478" t="n">
         <v>0</v>
@@ -10013,7 +10013,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C479" t="n">
-        <v>0.2690906365271984</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D479" t="n">
         <v>1</v>
@@ -10033,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="C480" t="n">
-        <v>0.2032582008530712</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D480" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C481" t="n">
-        <v>0.09150442768327482</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D481" t="n">
         <v>1</v>
@@ -10073,7 +10073,7 @@
         <v>0.4</v>
       </c>
       <c r="C482" t="n">
-        <v>0.6945062348513942</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D482" t="n">
         <v>1</v>
@@ -10093,7 +10093,7 @@
         <v>0.2</v>
       </c>
       <c r="C483" t="n">
-        <v>0.03969375855528533</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D483" t="n">
         <v>0</v>
@@ -10113,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="C484" t="n">
-        <v>0.5332397314493693</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D484" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C485" t="n">
-        <v>0.294091040298901</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D485" t="n">
         <v>1</v>
@@ -10153,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>0.2008912538062162</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D486" t="n">
         <v>0</v>
@@ -10173,7 +10173,7 @@
         <v>0.2</v>
       </c>
       <c r="C487" t="n">
-        <v>0.1028784985331552</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D487" t="n">
         <v>1</v>
@@ -10193,7 +10193,7 @@
         <v>0.4</v>
       </c>
       <c r="C488" t="n">
-        <v>0.03348955161176061</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D488" t="n">
         <v>0</v>
@@ -10213,7 +10213,7 @@
         <v>0</v>
       </c>
       <c r="C489" t="n">
-        <v>0.0137487402374531</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D489" t="n">
         <v>1</v>
@@ -10233,7 +10233,7 @@
         <v>0.8</v>
       </c>
       <c r="C490" t="n">
-        <v>0.0803191613127901</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D490" t="n">
         <v>1</v>
@@ -10253,7 +10253,7 @@
         <v>0.2</v>
       </c>
       <c r="C491" t="n">
-        <v>0.6636824459921391</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D491" t="n">
         <v>1</v>
@@ -10273,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="C492" t="n">
-        <v>0.7398160937556089</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D492" t="n">
         <v>1</v>
@@ -10293,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="C493" t="n">
-        <v>0.06354659516638321</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D493" t="n">
         <v>1</v>
@@ -10313,7 +10313,7 @@
         <v>0.2</v>
       </c>
       <c r="C494" t="n">
-        <v>0.02689590655407727</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D494" t="n">
         <v>1</v>
@@ -10333,7 +10333,7 @@
         <v>0.2</v>
       </c>
       <c r="C495" t="n">
-        <v>0.4327636641756042</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D495" t="n">
         <v>1</v>
@@ -10353,7 +10353,7 @@
         <v>0.2</v>
       </c>
       <c r="C496" t="n">
-        <v>0.1776848960310515</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D496" t="n">
         <v>0</v>
@@ -10373,7 +10373,7 @@
         <v>0.2</v>
       </c>
       <c r="C497" t="n">
-        <v>0.380641121965143</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D497" t="n">
         <v>0</v>
@@ -10393,7 +10393,7 @@
         <v>0.4</v>
       </c>
       <c r="C498" t="n">
-        <v>0.03510589836566474</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D498" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C499" t="n">
-        <v>0.06028909727894728</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D499" t="n">
         <v>1</v>
@@ -10433,7 +10433,7 @@
         <v>0.4</v>
       </c>
       <c r="C500" t="n">
-        <v>0.08443132807973476</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D500" t="n">
         <v>0</v>
@@ -10453,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>0.1164573358873362</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D501" t="n">
         <v>0</v>
@@ -10473,7 +10473,7 @@
         <v>0.2</v>
       </c>
       <c r="C502" t="n">
-        <v>0.06709136266441092</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D502" t="n">
         <v>0</v>
@@ -10493,7 +10493,7 @@
         <v>0.2</v>
       </c>
       <c r="C503" t="n">
-        <v>0.06700543596613694</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D503" t="n">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="C504" t="n">
-        <v>0.153815835509278</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D504" t="n">
         <v>1</v>
@@ -10533,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="C505" t="n">
-        <v>0.06985061828470336</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D505" t="n">
         <v>1</v>
@@ -10553,7 +10553,7 @@
         <v>0</v>
       </c>
       <c r="C506" t="n">
-        <v>0.3805244370227391</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D506" t="n">
         <v>0</v>
@@ -10573,7 +10573,7 @@
         <v>0.2</v>
       </c>
       <c r="C507" t="n">
-        <v>0.176095266754033</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D507" t="n">
         <v>1</v>
@@ -10593,7 +10593,7 @@
         <v>0.4</v>
       </c>
       <c r="C508" t="n">
-        <v>0.1175398235787161</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D508" t="n">
         <v>1</v>
@@ -10613,7 +10613,7 @@
         <v>0.2</v>
       </c>
       <c r="C509" t="n">
-        <v>0.696621215927237</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D509" t="n">
         <v>0</v>
@@ -10633,7 +10633,7 @@
         <v>0.2</v>
       </c>
       <c r="C510" t="n">
-        <v>0.2172211494192242</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D510" t="n">
         <v>0</v>
@@ -10653,7 +10653,7 @@
         <v>0.4</v>
       </c>
       <c r="C511" t="n">
-        <v>0.04777600150800476</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D511" t="n">
         <v>1</v>
@@ -10673,7 +10673,7 @@
         <v>0.4</v>
       </c>
       <c r="C512" t="n">
-        <v>0.0909098285961992</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D512" t="n">
         <v>1</v>
@@ -10693,7 +10693,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C513" t="n">
-        <v>0.05064263052529698</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D513" t="n">
         <v>0</v>
@@ -10713,7 +10713,7 @@
         <v>0.4</v>
       </c>
       <c r="C514" t="n">
-        <v>0.1203519089893616</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D514" t="n">
         <v>0</v>
@@ -10733,7 +10733,7 @@
         <v>0.2</v>
       </c>
       <c r="C515" t="n">
-        <v>0.1517573851559838</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D515" t="n">
         <v>1</v>
@@ -10753,7 +10753,7 @@
         <v>0.4</v>
       </c>
       <c r="C516" t="n">
-        <v>0.1633566109599462</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D516" t="n">
         <v>0</v>
@@ -10773,7 +10773,7 @@
         <v>0.4</v>
       </c>
       <c r="C517" t="n">
-        <v>0.41231188371708</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D517" t="n">
         <v>1</v>
@@ -10793,7 +10793,7 @@
         <v>0.2</v>
       </c>
       <c r="C518" t="n">
-        <v>0.02468105317941229</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D518" t="n">
         <v>1</v>
@@ -10813,7 +10813,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C519" t="n">
-        <v>0.1648183246327999</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D519" t="n">
         <v>1</v>
@@ -10833,7 +10833,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C520" t="n">
-        <v>0.6935215583242905</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D520" t="n">
         <v>1</v>
@@ -10853,7 +10853,7 @@
         <v>0.4</v>
       </c>
       <c r="C521" t="n">
-        <v>0.06227139383513899</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D521" t="n">
         <v>0</v>
@@ -10873,7 +10873,7 @@
         <v>0.2</v>
       </c>
       <c r="C522" t="n">
-        <v>0.02017789146661177</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D522" t="n">
         <v>1</v>
@@ -10893,7 +10893,7 @@
         <v>0</v>
       </c>
       <c r="C523" t="n">
-        <v>0.02839136703481328</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D523" t="n">
         <v>1</v>
@@ -10913,7 +10913,7 @@
         <v>0.2</v>
       </c>
       <c r="C524" t="n">
-        <v>0.6287908592559189</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D524" t="n">
         <v>1</v>
@@ -10933,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="C525" t="n">
-        <v>0.1696902643107988</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D525" t="n">
         <v>0</v>
@@ -10953,7 +10953,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C526" t="n">
-        <v>0.2157250626268858</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D526" t="n">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>0</v>
       </c>
       <c r="C527" t="n">
-        <v>0.3017920982975972</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D527" t="n">
         <v>1</v>
@@ -10993,7 +10993,7 @@
         <v>0.2</v>
       </c>
       <c r="C528" t="n">
-        <v>0.0707744327785019</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D528" t="n">
         <v>0</v>
@@ -11013,7 +11013,7 @@
         <v>0.2</v>
       </c>
       <c r="C529" t="n">
-        <v>0.1424768462430454</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D529" t="n">
         <v>0</v>
@@ -11033,7 +11033,7 @@
         <v>0.2</v>
       </c>
       <c r="C530" t="n">
-        <v>0.3606099590391252</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D530" t="n">
         <v>0</v>
@@ -11053,7 +11053,7 @@
         <v>0.4</v>
       </c>
       <c r="C531" t="n">
-        <v>0.08267358456777348</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D531" t="n">
         <v>1</v>
@@ -11073,7 +11073,7 @@
         <v>0.4</v>
       </c>
       <c r="C532" t="n">
-        <v>0.07259409898653381</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D532" t="n">
         <v>1</v>
@@ -11093,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="C533" t="n">
-        <v>0.1870850604600364</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D533" t="n">
         <v>0</v>
@@ -11113,7 +11113,7 @@
         <v>0</v>
       </c>
       <c r="C534" t="n">
-        <v>0.207676705572028</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D534" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="C535" t="n">
-        <v>0.3186404434302152</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D535" t="n">
         <v>1</v>
@@ -11153,7 +11153,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C536" t="n">
-        <v>0.2002308610920108</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D536" t="n">
         <v>0</v>
@@ -11173,7 +11173,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C537" t="n">
-        <v>0.09231978371555734</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D537" t="n">
         <v>1</v>
@@ -11193,7 +11193,7 @@
         <v>0</v>
       </c>
       <c r="C538" t="n">
-        <v>0.02891795274883346</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D538" t="n">
         <v>0</v>
@@ -11213,7 +11213,7 @@
         <v>0.4</v>
       </c>
       <c r="C539" t="n">
-        <v>0.07686622573671556</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D539" t="n">
         <v>0</v>
@@ -11233,7 +11233,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C540" t="n">
-        <v>0.2096167016933111</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D540" t="n">
         <v>0</v>
@@ -11253,7 +11253,7 @@
         <v>0.2</v>
       </c>
       <c r="C541" t="n">
-        <v>0.1950632177449725</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D541" t="n">
         <v>1</v>
@@ -11273,7 +11273,7 @@
         <v>0.2</v>
       </c>
       <c r="C542" t="n">
-        <v>0.2050332369097123</v>
+        <v>0.5</v>
       </c>
       <c r="D542" t="n">
         <v>0</v>
@@ -11293,7 +11293,7 @@
         <v>0.4</v>
       </c>
       <c r="C543" t="n">
-        <v>0.05798693444013303</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D543" t="n">
         <v>1</v>
@@ -11313,7 +11313,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C544" t="n">
-        <v>0.3146381873543123</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D544" t="n">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="C545" t="n">
-        <v>0.008241235813235524</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D545" t="n">
         <v>1</v>
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="C546" t="n">
-        <v>0.009856861088709434</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D546" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>0.2</v>
       </c>
       <c r="C547" t="n">
-        <v>0.40649176813877</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D547" t="n">
         <v>1</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="C548" t="n">
-        <v>0.1041927516128927</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D548" t="n">
         <v>1</v>
@@ -11413,7 +11413,7 @@
         <v>0</v>
       </c>
       <c r="C549" t="n">
-        <v>0.05203326759198559</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D549" t="n">
         <v>1</v>
@@ -11433,7 +11433,7 @@
         <v>0.4</v>
       </c>
       <c r="C550" t="n">
-        <v>0.0867724426198643</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D550" t="n">
         <v>1</v>
@@ -11453,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="C551" t="n">
-        <v>0.1542273791694324</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D551" t="n">
         <v>1</v>
@@ -11473,7 +11473,7 @@
         <v>0.4</v>
       </c>
       <c r="C552" t="n">
-        <v>0.05387974888390618</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D552" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C553" t="n">
-        <v>0.1263891217383024</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D553" t="n">
         <v>1</v>
@@ -11513,7 +11513,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C554" t="n">
-        <v>0.1850208569873094</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D554" t="n">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0.4</v>
       </c>
       <c r="C555" t="n">
-        <v>0.08912311776593394</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D555" t="n">
         <v>1</v>
@@ -11553,7 +11553,7 @@
         <v>0.2</v>
       </c>
       <c r="C556" t="n">
-        <v>0.1252966756924453</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D556" t="n">
         <v>0</v>
@@ -11573,7 +11573,7 @@
         <v>0.8</v>
       </c>
       <c r="C557" t="n">
-        <v>0.05503064118974507</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D557" t="n">
         <v>1</v>
@@ -11593,7 +11593,7 @@
         <v>0.4</v>
       </c>
       <c r="C558" t="n">
-        <v>0.09994678272611303</v>
+        <v>0.5</v>
       </c>
       <c r="D558" t="n">
         <v>1</v>
@@ -11613,7 +11613,7 @@
         <v>0.4</v>
       </c>
       <c r="C559" t="n">
-        <v>0.2260885024341834</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D559" t="n">
         <v>0</v>
@@ -11633,7 +11633,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C560" t="n">
-        <v>0.4708188744507701</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D560" t="n">
         <v>1</v>
@@ -11653,7 +11653,7 @@
         <v>0.4</v>
       </c>
       <c r="C561" t="n">
-        <v>0.1920729670182542</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D561" t="n">
         <v>1</v>
@@ -11673,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="C562" t="n">
-        <v>0.3109267964056336</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D562" t="n">
         <v>0</v>
@@ -11693,7 +11693,7 @@
         <v>0.2</v>
       </c>
       <c r="C563" t="n">
-        <v>0.039955834985021</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D563" t="n">
         <v>0</v>
@@ -11713,7 +11713,7 @@
         <v>0.4</v>
       </c>
       <c r="C564" t="n">
-        <v>0.1137836547667154</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D564" t="n">
         <v>1</v>
@@ -11733,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>0.1663165595925951</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D565" t="n">
         <v>1</v>
@@ -11753,7 +11753,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C566" t="n">
-        <v>0.2357261089121399</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D566" t="n">
         <v>0</v>
@@ -11773,7 +11773,7 @@
         <v>0.2</v>
       </c>
       <c r="C567" t="n">
-        <v>0.1376587254396962</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D567" t="n">
         <v>0</v>
@@ -11793,7 +11793,7 @@
         <v>0.2</v>
       </c>
       <c r="C568" t="n">
-        <v>0.009584241475870503</v>
+        <v>0</v>
       </c>
       <c r="D568" t="n">
         <v>1</v>
@@ -11813,7 +11813,7 @@
         <v>0.2</v>
       </c>
       <c r="C569" t="n">
-        <v>0.06550533996615193</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D569" t="n">
         <v>0</v>
@@ -11833,7 +11833,7 @@
         <v>0.4</v>
       </c>
       <c r="C570" t="n">
-        <v>0.3650687734981651</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D570" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="C571" t="n">
-        <v>0.406757677595512</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D571" t="n">
         <v>0</v>
@@ -11873,7 +11873,7 @@
         <v>0.4</v>
       </c>
       <c r="C572" t="n">
-        <v>0.169454657273483</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D572" t="n">
         <v>0</v>
@@ -11893,7 +11893,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C573" t="n">
-        <v>0.9581676863255165</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D573" t="n">
         <v>1</v>
@@ -11913,7 +11913,7 @@
         <v>0.2</v>
       </c>
       <c r="C574" t="n">
-        <v>0.4085618649596576</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D574" t="n">
         <v>0</v>
@@ -11933,7 +11933,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C575" t="n">
-        <v>0.5704678346224877</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D575" t="n">
         <v>1</v>
@@ -11953,7 +11953,7 @@
         <v>0</v>
       </c>
       <c r="C576" t="n">
-        <v>0.06119946234112938</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D576" t="n">
         <v>0</v>
@@ -11973,7 +11973,7 @@
         <v>0.4</v>
       </c>
       <c r="C577" t="n">
-        <v>0.1750434488097671</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D577" t="n">
         <v>0</v>
@@ -11993,7 +11993,7 @@
         <v>0.2</v>
       </c>
       <c r="C578" t="n">
-        <v>0.1328799874352587</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D578" t="n">
         <v>1</v>
@@ -12013,7 +12013,7 @@
         <v>0</v>
       </c>
       <c r="C579" t="n">
-        <v>0.09924862830263684</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D579" t="n">
         <v>1</v>
@@ -12033,7 +12033,7 @@
         <v>0.4</v>
       </c>
       <c r="C580" t="n">
-        <v>0.04561312386241692</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D580" t="n">
         <v>0</v>
@@ -12053,7 +12053,7 @@
         <v>0</v>
       </c>
       <c r="C581" t="n">
-        <v>0.0006765596874625975</v>
+        <v>0</v>
       </c>
       <c r="D581" t="n">
         <v>1</v>
@@ -12073,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="C582" t="n">
-        <v>0.01782510963606154</v>
+        <v>0</v>
       </c>
       <c r="D582" t="n">
         <v>0</v>
@@ -12093,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="C583" t="n">
-        <v>0.452710963978069</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D583" t="n">
         <v>0</v>
@@ -12113,7 +12113,7 @@
         <v>0</v>
       </c>
       <c r="C584" t="n">
-        <v>0.2751231348578962</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D584" t="n">
         <v>0</v>
@@ -12133,7 +12133,7 @@
         <v>0.4</v>
       </c>
       <c r="C585" t="n">
-        <v>0.2169115570870551</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D585" t="n">
         <v>0</v>
@@ -12153,7 +12153,7 @@
         <v>0.4</v>
       </c>
       <c r="C586" t="n">
-        <v>0.1074487186971655</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D586" t="n">
         <v>1</v>
@@ -12173,7 +12173,7 @@
         <v>0</v>
       </c>
       <c r="C587" t="n">
-        <v>0.05357461149803054</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D587" t="n">
         <v>0</v>
@@ -12193,7 +12193,7 @@
         <v>0.4</v>
       </c>
       <c r="C588" t="n">
-        <v>0.0684148038166939</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D588" t="n">
         <v>0</v>
@@ -12213,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="C589" t="n">
-        <v>0.5706076940702483</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D589" t="n">
         <v>1</v>
@@ -12233,7 +12233,7 @@
         <v>0.4</v>
       </c>
       <c r="C590" t="n">
-        <v>0.2431587422843061</v>
+        <v>1</v>
       </c>
       <c r="D590" t="n">
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>0.4</v>
       </c>
       <c r="C591" t="n">
-        <v>0.2641878676773141</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D591" t="n">
         <v>1</v>
@@ -12273,7 +12273,7 @@
         <v>0</v>
       </c>
       <c r="C592" t="n">
-        <v>0.1714018201889586</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D592" t="n">
         <v>0</v>
@@ -12293,7 +12293,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C593" t="n">
-        <v>0.1686395729140254</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D593" t="n">
         <v>1</v>
@@ -12313,7 +12313,7 @@
         <v>0.4</v>
       </c>
       <c r="C594" t="n">
-        <v>0.2844656558444987</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D594" t="n">
         <v>0</v>
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="C595" t="n">
-        <v>0.1309928560801714</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D595" t="n">
         <v>1</v>
@@ -12353,7 +12353,7 @@
         <v>0</v>
       </c>
       <c r="C596" t="n">
-        <v>0.2659320690310061</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D596" t="n">
         <v>0</v>
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="C597" t="n">
-        <v>0.2141104858133021</v>
+        <v>0</v>
       </c>
       <c r="D597" t="n">
         <v>0</v>
@@ -12393,7 +12393,7 @@
         <v>0</v>
       </c>
       <c r="C598" t="n">
-        <v>0.1620390660840338</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D598" t="n">
         <v>0</v>
@@ -12413,7 +12413,7 @@
         <v>0</v>
       </c>
       <c r="C599" t="n">
-        <v>0.0301321293684343</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D599" t="n">
         <v>0</v>
@@ -12433,7 +12433,7 @@
         <v>0</v>
       </c>
       <c r="C600" t="n">
-        <v>0.3330596323433538</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D600" t="n">
         <v>1</v>
@@ -12453,7 +12453,7 @@
         <v>0.4</v>
       </c>
       <c r="C601" t="n">
-        <v>0.3808922086597369</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D601" t="n">
         <v>0</v>
@@ -12473,7 +12473,7 @@
         <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>0.1742595458207973</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D602" t="n">
         <v>0</v>
@@ -12493,7 +12493,7 @@
         <v>0.4</v>
       </c>
       <c r="C603" t="n">
-        <v>0.1153263554101015</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D603" t="n">
         <v>0</v>
@@ -12513,7 +12513,7 @@
         <v>0.4</v>
       </c>
       <c r="C604" t="n">
-        <v>0.08258980603695633</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D604" t="n">
         <v>1</v>
@@ -12533,7 +12533,7 @@
         <v>0.2</v>
       </c>
       <c r="C605" t="n">
-        <v>0.09636454877999844</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D605" t="n">
         <v>0</v>
@@ -12553,7 +12553,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C606" t="n">
-        <v>0.08827449075990854</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D606" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         <v>0</v>
       </c>
       <c r="C607" t="n">
-        <v>0.4341372606863591</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D607" t="n">
         <v>0</v>
@@ -12593,7 +12593,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C608" t="n">
-        <v>0.1203840704968375</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D608" t="n">
         <v>0</v>
@@ -12613,7 +12613,7 @@
         <v>1</v>
       </c>
       <c r="C609" t="n">
-        <v>0.1276036172074463</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D609" t="n">
         <v>0</v>
@@ -12633,7 +12633,7 @@
         <v>0.4</v>
       </c>
       <c r="C610" t="n">
-        <v>0.04434286307230595</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D610" t="n">
         <v>1</v>
@@ -12653,7 +12653,7 @@
         <v>0.2</v>
       </c>
       <c r="C611" t="n">
-        <v>0.08378915859298236</v>
+        <v>0.5</v>
       </c>
       <c r="D611" t="n">
         <v>1</v>
@@ -12673,7 +12673,7 @@
         <v>0</v>
       </c>
       <c r="C612" t="n">
-        <v>0.182233284762066</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D612" t="n">
         <v>1</v>
@@ -12693,7 +12693,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C613" t="n">
-        <v>0.08145180029568347</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D613" t="n">
         <v>0</v>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="C614" t="n">
-        <v>0.1304530137083656</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D614" t="n">
         <v>1</v>
@@ -12733,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="C615" t="n">
-        <v>0.008835478634750333</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D615" t="n">
         <v>1</v>
@@ -12753,7 +12753,7 @@
         <v>0.2</v>
       </c>
       <c r="C616" t="n">
-        <v>0.06922913172187856</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D616" t="n">
         <v>1</v>
@@ -12773,7 +12773,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C617" t="n">
-        <v>0.2191075194396885</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D617" t="n">
         <v>0</v>
@@ -12793,7 +12793,7 @@
         <v>0.2</v>
       </c>
       <c r="C618" t="n">
-        <v>0.1437401021039105</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D618" t="n">
         <v>1</v>
@@ -12813,7 +12813,7 @@
         <v>0.2</v>
       </c>
       <c r="C619" t="n">
-        <v>0.08838633699781902</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D619" t="n">
         <v>0</v>
@@ -12833,7 +12833,7 @@
         <v>0</v>
       </c>
       <c r="C620" t="n">
-        <v>0.01597890896427448</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D620" t="n">
         <v>1</v>
@@ -12853,7 +12853,7 @@
         <v>0</v>
       </c>
       <c r="C621" t="n">
-        <v>0.1481938819937376</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D621" t="n">
         <v>1</v>
@@ -12873,7 +12873,7 @@
         <v>0</v>
       </c>
       <c r="C622" t="n">
-        <v>0.08706770949756543</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D622" t="n">
         <v>0</v>
@@ -12893,7 +12893,7 @@
         <v>0.4</v>
       </c>
       <c r="C623" t="n">
-        <v>0.7333394900685687</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D623" t="n">
         <v>0</v>
@@ -12913,7 +12913,7 @@
         <v>0.2</v>
       </c>
       <c r="C624" t="n">
-        <v>0.5479753744669853</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D624" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         <v>0</v>
       </c>
       <c r="C625" t="n">
-        <v>0.02812399135820847</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D625" t="n">
         <v>0</v>
@@ -12953,7 +12953,7 @@
         <v>0.4</v>
       </c>
       <c r="C626" t="n">
-        <v>0.2114451736797936</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D626" t="n">
         <v>1</v>
@@ -12973,7 +12973,7 @@
         <v>0.2</v>
       </c>
       <c r="C627" t="n">
-        <v>0.09466310986769565</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D627" t="n">
         <v>1</v>
@@ -12993,7 +12993,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C628" t="n">
-        <v>0.3030292288307279</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D628" t="n">
         <v>0</v>
@@ -13013,7 +13013,7 @@
         <v>0</v>
       </c>
       <c r="C629" t="n">
-        <v>0.1942706195988222</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D629" t="n">
         <v>0</v>
@@ -13033,7 +13033,7 @@
         <v>0.4</v>
       </c>
       <c r="C630" t="n">
-        <v>0.1278051650944703</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D630" t="n">
         <v>1</v>
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="C631" t="n">
-        <v>0.06961179509663994</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D631" t="n">
         <v>0</v>
@@ -13073,7 +13073,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C632" t="n">
-        <v>0.1673929370855896</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D632" t="n">
         <v>0</v>
@@ -13093,7 +13093,7 @@
         <v>0</v>
       </c>
       <c r="C633" t="n">
-        <v>0.2066166040467773</v>
+        <v>1</v>
       </c>
       <c r="D633" t="n">
         <v>1</v>
@@ -13113,7 +13113,7 @@
         <v>0</v>
       </c>
       <c r="C634" t="n">
-        <v>0.1476452053747721</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D634" t="n">
         <v>0</v>
@@ -13133,7 +13133,7 @@
         <v>0.2</v>
       </c>
       <c r="C635" t="n">
-        <v>0.01163740803673766</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D635" t="n">
         <v>1</v>
@@ -13153,7 +13153,7 @@
         <v>0</v>
       </c>
       <c r="C636" t="n">
-        <v>0.1665969519764365</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D636" t="n">
         <v>1</v>
@@ -13173,7 +13173,7 @@
         <v>0</v>
       </c>
       <c r="C637" t="n">
-        <v>0.02837463394093887</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D637" t="n">
         <v>1</v>
@@ -13193,7 +13193,7 @@
         <v>0</v>
       </c>
       <c r="C638" t="n">
-        <v>0.2146891586910611</v>
+        <v>1</v>
       </c>
       <c r="D638" t="n">
         <v>0</v>
@@ -13213,7 +13213,7 @@
         <v>0</v>
       </c>
       <c r="C639" t="n">
-        <v>0.3994876425238729</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D639" t="n">
         <v>0</v>
@@ -13233,7 +13233,7 @@
         <v>0</v>
       </c>
       <c r="C640" t="n">
-        <v>0.2965381275755378</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D640" t="n">
         <v>1</v>
@@ -13253,7 +13253,7 @@
         <v>0.2</v>
       </c>
       <c r="C641" t="n">
-        <v>0.2549907801490546</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D641" t="n">
         <v>0</v>
@@ -13273,7 +13273,7 @@
         <v>0</v>
       </c>
       <c r="C642" t="n">
-        <v>0.5522522989267192</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D642" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         <v>0.4</v>
       </c>
       <c r="C643" t="n">
-        <v>0.05599904988302176</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D643" t="n">
         <v>0</v>
@@ -13313,7 +13313,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C644" t="n">
-        <v>0.06721299725793509</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D644" t="n">
         <v>1</v>
@@ -13333,7 +13333,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C645" t="n">
-        <v>0.1206489994912347</v>
+        <v>0.5</v>
       </c>
       <c r="D645" t="n">
         <v>0</v>
@@ -13353,7 +13353,7 @@
         <v>0</v>
       </c>
       <c r="C646" t="n">
-        <v>0.6280317647135353</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D646" t="n">
         <v>1</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="C647" t="n">
-        <v>0.2391180441783217</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D647" t="n">
         <v>1</v>
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="C648" t="n">
-        <v>0.05336433673155004</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D648" t="n">
         <v>1</v>
@@ -13413,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="C649" t="n">
-        <v>0.3569739729164796</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D649" t="n">
         <v>0</v>
@@ -13433,7 +13433,7 @@
         <v>0</v>
       </c>
       <c r="C650" t="n">
-        <v>0.04672616254572386</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D650" t="n">
         <v>0</v>
@@ -13453,7 +13453,7 @@
         <v>0.2</v>
       </c>
       <c r="C651" t="n">
-        <v>0.02106816412723419</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D651" t="n">
         <v>1</v>
@@ -13473,7 +13473,7 @@
         <v>0</v>
       </c>
       <c r="C652" t="n">
-        <v>0.0002462478274220456</v>
+        <v>0</v>
       </c>
       <c r="D652" t="n">
         <v>1</v>
@@ -13493,7 +13493,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C653" t="n">
-        <v>0.1272509199959858</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D653" t="n">
         <v>1</v>
@@ -13513,7 +13513,7 @@
         <v>0.2</v>
       </c>
       <c r="C654" t="n">
-        <v>0.1354358406354709</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D654" t="n">
         <v>0</v>
@@ -13533,7 +13533,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C655" t="n">
-        <v>0.3751209497787244</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D655" t="n">
         <v>0</v>
@@ -13553,7 +13553,7 @@
         <v>0.4</v>
       </c>
       <c r="C656" t="n">
-        <v>0.7882707152722305</v>
+        <v>1</v>
       </c>
       <c r="D656" t="n">
         <v>1</v>
@@ -13573,7 +13573,7 @@
         <v>0.4</v>
       </c>
       <c r="C657" t="n">
-        <v>0.08865432759854248</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D657" t="n">
         <v>0</v>
@@ -13593,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="C658" t="n">
-        <v>0.5820119999907227</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D658" t="n">
         <v>0</v>
@@ -13613,7 +13613,7 @@
         <v>0</v>
       </c>
       <c r="C659" t="n">
-        <v>0.2901099136989642</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D659" t="n">
         <v>0</v>
@@ -13633,7 +13633,7 @@
         <v>0.4</v>
       </c>
       <c r="C660" t="n">
-        <v>0.06156619869318249</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D660" t="n">
         <v>0</v>
@@ -13653,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="C661" t="n">
-        <v>0.01037016004945144</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D661" t="n">
         <v>0</v>
@@ -13673,7 +13673,7 @@
         <v>0</v>
       </c>
       <c r="C662" t="n">
-        <v>0.02215454633803228</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D662" t="n">
         <v>1</v>
@@ -13693,7 +13693,7 @@
         <v>0</v>
       </c>
       <c r="C663" t="n">
-        <v>0.5305072835924403</v>
+        <v>0</v>
       </c>
       <c r="D663" t="n">
         <v>1</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="C664" t="n">
-        <v>0.5858376270847795</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D664" t="n">
         <v>0</v>
@@ -13733,7 +13733,7 @@
         <v>0.4</v>
       </c>
       <c r="C665" t="n">
-        <v>0.1750772693109367</v>
+        <v>0</v>
       </c>
       <c r="D665" t="n">
         <v>1</v>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="C666" t="n">
-        <v>0.1653570778731309</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D666" t="n">
         <v>0</v>
@@ -13773,7 +13773,7 @@
         <v>0.4</v>
       </c>
       <c r="C667" t="n">
-        <v>0.07494804803416112</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D667" t="n">
         <v>1</v>
@@ -13793,7 +13793,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C668" t="n">
-        <v>0.2488754185158707</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D668" t="n">
         <v>0</v>
@@ -13813,7 +13813,7 @@
         <v>0</v>
       </c>
       <c r="C669" t="n">
-        <v>0.07805681155709224</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D669" t="n">
         <v>0</v>
@@ -13833,7 +13833,7 @@
         <v>0.2</v>
       </c>
       <c r="C670" t="n">
-        <v>0.2612094924692894</v>
+        <v>0</v>
       </c>
       <c r="D670" t="n">
         <v>1</v>
@@ -13853,7 +13853,7 @@
         <v>0</v>
       </c>
       <c r="C671" t="n">
-        <v>0.1383424088115917</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D671" t="n">
         <v>0</v>
@@ -13873,7 +13873,7 @@
         <v>0.4</v>
       </c>
       <c r="C672" t="n">
-        <v>0.4565503868459243</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D672" t="n">
         <v>0</v>
@@ -13893,7 +13893,7 @@
         <v>0.4</v>
       </c>
       <c r="C673" t="n">
-        <v>0.3249773130944937</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D673" t="n">
         <v>1</v>
@@ -13913,7 +13913,7 @@
         <v>0.2</v>
       </c>
       <c r="C674" t="n">
-        <v>0.0507835595831316</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D674" t="n">
         <v>1</v>
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="C675" t="n">
-        <v>0.218802639898979</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D675" t="n">
         <v>0</v>
@@ -13953,7 +13953,7 @@
         <v>0</v>
       </c>
       <c r="C676" t="n">
-        <v>0.3065327170257764</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D676" t="n">
         <v>0</v>
@@ -13973,7 +13973,7 @@
         <v>0</v>
       </c>
       <c r="C677" t="n">
-        <v>0.1664978141703117</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D677" t="n">
         <v>1</v>
@@ -13993,7 +13993,7 @@
         <v>0.2</v>
       </c>
       <c r="C678" t="n">
-        <v>0.09812236793738702</v>
+        <v>0.5</v>
       </c>
       <c r="D678" t="n">
         <v>0</v>
@@ -14013,7 +14013,7 @@
         <v>0</v>
       </c>
       <c r="C679" t="n">
-        <v>0.01441445741367003</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D679" t="n">
         <v>0</v>
@@ -14033,7 +14033,7 @@
         <v>0</v>
       </c>
       <c r="C680" t="n">
-        <v>0.2006814117641155</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D680" t="n">
         <v>0</v>
@@ -14053,7 +14053,7 @@
         <v>0.2</v>
       </c>
       <c r="C681" t="n">
-        <v>0.1918322242257992</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D681" t="n">
         <v>1</v>
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="C682" t="n">
-        <v>0.1888553277638694</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D682" t="n">
         <v>1</v>
@@ -14093,7 +14093,7 @@
         <v>0.2</v>
       </c>
       <c r="C683" t="n">
-        <v>0.06935732387921838</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D683" t="n">
         <v>0</v>
@@ -14113,7 +14113,7 @@
         <v>0.2</v>
       </c>
       <c r="C684" t="n">
-        <v>0.0919797493859478</v>
+        <v>0.5</v>
       </c>
       <c r="D684" t="n">
         <v>0</v>
@@ -14133,7 +14133,7 @@
         <v>0.4</v>
       </c>
       <c r="C685" t="n">
-        <v>0.6789374607528647</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D685" t="n">
         <v>1</v>
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="C686" t="n">
-        <v>0.4558163486719143</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D686" t="n">
         <v>0</v>
@@ -14173,7 +14173,7 @@
         <v>0.8</v>
       </c>
       <c r="C687" t="n">
-        <v>0.06110372695244944</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D687" t="n">
         <v>1</v>
@@ -14193,7 +14193,7 @@
         <v>0</v>
       </c>
       <c r="C688" t="n">
-        <v>0.008034565998731081</v>
+        <v>0</v>
       </c>
       <c r="D688" t="n">
         <v>0</v>
@@ -14213,7 +14213,7 @@
         <v>0</v>
       </c>
       <c r="C689" t="n">
-        <v>0.002148364297639128</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D689" t="n">
         <v>1</v>
@@ -14233,7 +14233,7 @@
         <v>0</v>
       </c>
       <c r="C690" t="n">
-        <v>0.006400920843727054</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D690" t="n">
         <v>1</v>
@@ -14253,7 +14253,7 @@
         <v>0</v>
       </c>
       <c r="C691" t="n">
-        <v>0.0085333865873671</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D691" t="n">
         <v>1</v>
@@ -14273,7 +14273,7 @@
         <v>0.2</v>
       </c>
       <c r="C692" t="n">
-        <v>0.2925917251549397</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D692" t="n">
         <v>0</v>
@@ -14293,7 +14293,7 @@
         <v>0.4</v>
       </c>
       <c r="C693" t="n">
-        <v>0.3870633741686541</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D693" t="n">
         <v>0</v>
@@ -14313,7 +14313,7 @@
         <v>0.4</v>
       </c>
       <c r="C694" t="n">
-        <v>0.5822051797040263</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D694" t="n">
         <v>0</v>
@@ -14333,7 +14333,7 @@
         <v>0</v>
       </c>
       <c r="C695" t="n">
-        <v>0.2146048148530185</v>
+        <v>1</v>
       </c>
       <c r="D695" t="n">
         <v>0</v>
@@ -14353,7 +14353,7 @@
         <v>0</v>
       </c>
       <c r="C696" t="n">
-        <v>0.2996107000485541</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D696" t="n">
         <v>0</v>
@@ -14373,7 +14373,7 @@
         <v>0</v>
       </c>
       <c r="C697" t="n">
-        <v>0.1340380506022486</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D697" t="n">
         <v>1</v>
@@ -14393,7 +14393,7 @@
         <v>0.4</v>
       </c>
       <c r="C698" t="n">
-        <v>0.09844456946755545</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D698" t="n">
         <v>1</v>
@@ -14413,7 +14413,7 @@
         <v>0.2</v>
       </c>
       <c r="C699" t="n">
-        <v>0.02897354237719525</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D699" t="n">
         <v>1</v>
@@ -14433,7 +14433,7 @@
         <v>0.2</v>
       </c>
       <c r="C700" t="n">
-        <v>0.08743980366068944</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D700" t="n">
         <v>0</v>
@@ -14453,7 +14453,7 @@
         <v>0.2</v>
       </c>
       <c r="C701" t="n">
-        <v>0.1059336400222259</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D701" t="n">
         <v>0</v>
@@ -14473,7 +14473,7 @@
         <v>0.2</v>
       </c>
       <c r="C702" t="n">
-        <v>0.04610625477617196</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D702" t="n">
         <v>0</v>
@@ -14493,7 +14493,7 @@
         <v>0</v>
       </c>
       <c r="C703" t="n">
-        <v>0.2596217128449771</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D703" t="n">
         <v>0</v>
@@ -14513,7 +14513,7 @@
         <v>0</v>
       </c>
       <c r="C704" t="n">
-        <v>0.07386167721084672</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D704" t="n">
         <v>0</v>
@@ -14533,7 +14533,7 @@
         <v>0.2</v>
       </c>
       <c r="C705" t="n">
-        <v>0.08126792578332905</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D705" t="n">
         <v>1</v>
@@ -14553,7 +14553,7 @@
         <v>0</v>
       </c>
       <c r="C706" t="n">
-        <v>0.1668990521577367</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D706" t="n">
         <v>1</v>
@@ -14573,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="C707" t="n">
-        <v>0.32140213743612</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D707" t="n">
         <v>0</v>
@@ -14593,7 +14593,7 @@
         <v>0.4</v>
       </c>
       <c r="C708" t="n">
-        <v>0.121725852004977</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D708" t="n">
         <v>1</v>
@@ -14613,7 +14613,7 @@
         <v>0.4</v>
       </c>
       <c r="C709" t="n">
-        <v>0.04183361477583296</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D709" t="n">
         <v>1</v>
@@ -14633,7 +14633,7 @@
         <v>0</v>
       </c>
       <c r="C710" t="n">
-        <v>0.1693969333053231</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D710" t="n">
         <v>1</v>
@@ -14653,7 +14653,7 @@
         <v>0.4</v>
       </c>
       <c r="C711" t="n">
-        <v>0.5397877655679604</v>
+        <v>0</v>
       </c>
       <c r="D711" t="n">
         <v>1</v>
@@ -14673,7 +14673,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C712" t="n">
-        <v>0.2434197230754335</v>
+        <v>1</v>
       </c>
       <c r="D712" t="n">
         <v>0</v>
@@ -14693,7 +14693,7 @@
         <v>0</v>
       </c>
       <c r="C713" t="n">
-        <v>0.1890207366580468</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D713" t="n">
         <v>1</v>
@@ -14713,7 +14713,7 @@
         <v>0</v>
       </c>
       <c r="C714" t="n">
-        <v>0.1996369387468224</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D714" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         <v>0.4</v>
       </c>
       <c r="C715" t="n">
-        <v>0.09052329510377038</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D715" t="n">
         <v>0</v>
@@ -14753,7 +14753,7 @@
         <v>0.2</v>
       </c>
       <c r="C716" t="n">
-        <v>0.0372281259480858</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D716" t="n">
         <v>0</v>
@@ -14773,7 +14773,7 @@
         <v>0</v>
       </c>
       <c r="C717" t="n">
-        <v>0.01594883461987858</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D717" t="n">
         <v>1</v>
@@ -14793,7 +14793,7 @@
         <v>0.2</v>
       </c>
       <c r="C718" t="n">
-        <v>0.08749429927722636</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D718" t="n">
         <v>0</v>
@@ -14813,7 +14813,7 @@
         <v>0.2</v>
       </c>
       <c r="C719" t="n">
-        <v>0.2674188815312797</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D719" t="n">
         <v>1</v>
@@ -14833,7 +14833,7 @@
         <v>0</v>
       </c>
       <c r="C720" t="n">
-        <v>0.2161841905143758</v>
+        <v>1</v>
       </c>
       <c r="D720" t="n">
         <v>1</v>
@@ -14853,7 +14853,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C721" t="n">
-        <v>0.03839199185140169</v>
+        <v>0</v>
       </c>
       <c r="D721" t="n">
         <v>1</v>
@@ -14873,7 +14873,7 @@
         <v>0.2</v>
       </c>
       <c r="C722" t="n">
-        <v>0.102799355521587</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D722" t="n">
         <v>1</v>
@@ -14893,7 +14893,7 @@
         <v>0.4</v>
       </c>
       <c r="C723" t="n">
-        <v>0.3830350150519491</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D723" t="n">
         <v>0</v>
@@ -14913,7 +14913,7 @@
         <v>0</v>
       </c>
       <c r="C724" t="n">
-        <v>0.8786831010026405</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D724" t="n">
         <v>0</v>
@@ -14933,7 +14933,7 @@
         <v>0</v>
       </c>
       <c r="C725" t="n">
-        <v>0.1807674227915865</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D725" t="n">
         <v>0</v>
@@ -14953,7 +14953,7 @@
         <v>0</v>
       </c>
       <c r="C726" t="n">
-        <v>0.008134060070416761</v>
+        <v>0</v>
       </c>
       <c r="D726" t="n">
         <v>0</v>
@@ -14973,7 +14973,7 @@
         <v>0</v>
       </c>
       <c r="C727" t="n">
-        <v>0.0003183810293941602</v>
+        <v>0</v>
       </c>
       <c r="D727" t="n">
         <v>1</v>
@@ -14993,7 +14993,7 @@
         <v>0.4</v>
       </c>
       <c r="C728" t="n">
-        <v>0.03695209903745181</v>
+        <v>0</v>
       </c>
       <c r="D728" t="n">
         <v>0</v>
@@ -15013,7 +15013,7 @@
         <v>0</v>
       </c>
       <c r="C729" t="n">
-        <v>0.008359385023362264</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D729" t="n">
         <v>1</v>
@@ -15033,7 +15033,7 @@
         <v>0</v>
       </c>
       <c r="C730" t="n">
-        <v>0.6279525761520325</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D730" t="n">
         <v>1</v>
@@ -15053,7 +15053,7 @@
         <v>0.4</v>
       </c>
       <c r="C731" t="n">
-        <v>0.09798098012663847</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D731" t="n">
         <v>0</v>
@@ -15073,7 +15073,7 @@
         <v>0.2</v>
       </c>
       <c r="C732" t="n">
-        <v>0.4069965793572128</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D732" t="n">
         <v>0</v>
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="C733" t="n">
-        <v>0.2704792913583353</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D733" t="n">
         <v>0</v>
@@ -15113,7 +15113,7 @@
         <v>0</v>
       </c>
       <c r="C734" t="n">
-        <v>0.008421681879610912</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D734" t="n">
         <v>1</v>
@@ -15133,7 +15133,7 @@
         <v>0</v>
       </c>
       <c r="C735" t="n">
-        <v>0.3289839609974948</v>
+        <v>0</v>
       </c>
       <c r="D735" t="n">
         <v>0</v>
@@ -15153,7 +15153,7 @@
         <v>0</v>
       </c>
       <c r="C736" t="n">
-        <v>0.0446548996465076</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D736" t="n">
         <v>1</v>
@@ -15173,7 +15173,7 @@
         <v>0</v>
       </c>
       <c r="C737" t="n">
-        <v>0.1560373220931859</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D737" t="n">
         <v>0</v>
@@ -15193,7 +15193,7 @@
         <v>0</v>
       </c>
       <c r="C738" t="n">
-        <v>0.3271511546093676</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D738" t="n">
         <v>1</v>
@@ -15213,7 +15213,7 @@
         <v>0.2</v>
       </c>
       <c r="C739" t="n">
-        <v>0.01785510589485506</v>
+        <v>0</v>
       </c>
       <c r="D739" t="n">
         <v>0</v>
@@ -15233,7 +15233,7 @@
         <v>0.2</v>
       </c>
       <c r="C740" t="n">
-        <v>0.3651542743045495</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D740" t="n">
         <v>1</v>
@@ -15253,7 +15253,7 @@
         <v>0</v>
       </c>
       <c r="C741" t="n">
-        <v>0.5709608109918214</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D741" t="n">
         <v>1</v>
@@ -15273,7 +15273,7 @@
         <v>0.2</v>
       </c>
       <c r="C742" t="n">
-        <v>0.1697117313443169</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D742" t="n">
         <v>1</v>
@@ -15293,7 +15293,7 @@
         <v>0</v>
       </c>
       <c r="C743" t="n">
-        <v>0.1190934456323419</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D743" t="n">
         <v>1</v>
@@ -15313,7 +15313,7 @@
         <v>0.2</v>
       </c>
       <c r="C744" t="n">
-        <v>0.4419323602668772</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D744" t="n">
         <v>0</v>
@@ -15333,7 +15333,7 @@
         <v>0</v>
       </c>
       <c r="C745" t="n">
-        <v>0.01384516456889563</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D745" t="n">
         <v>1</v>
@@ -15353,7 +15353,7 @@
         <v>1</v>
       </c>
       <c r="C746" t="n">
-        <v>0.1317780548021054</v>
+        <v>0.5</v>
       </c>
       <c r="D746" t="n">
         <v>1</v>
@@ -15373,7 +15373,7 @@
         <v>0.2</v>
       </c>
       <c r="C747" t="n">
-        <v>0.1344420541214242</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D747" t="n">
         <v>1</v>
@@ -15393,7 +15393,7 @@
         <v>0</v>
       </c>
       <c r="C748" t="n">
-        <v>0.1713953756865881</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D748" t="n">
         <v>0</v>
@@ -15413,7 +15413,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C749" t="n">
-        <v>0.2882144424761871</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D749" t="n">
         <v>0</v>
@@ -15433,7 +15433,7 @@
         <v>0.2</v>
       </c>
       <c r="C750" t="n">
-        <v>0.113001434685155</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D750" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         <v>0.4</v>
       </c>
       <c r="C751" t="n">
-        <v>0.1874759358373137</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D751" t="n">
         <v>0</v>
@@ -15473,7 +15473,7 @@
         <v>0</v>
       </c>
       <c r="C752" t="n">
-        <v>0.1989592826073599</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D752" t="n">
         <v>1</v>
@@ -15493,7 +15493,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C753" t="n">
-        <v>0.3934801031172241</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D753" t="n">
         <v>1</v>
@@ -15513,7 +15513,7 @@
         <v>0</v>
       </c>
       <c r="C754" t="n">
-        <v>0.1139160676135416</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D754" t="n">
         <v>1</v>
@@ -15533,7 +15533,7 @@
         <v>0.2</v>
       </c>
       <c r="C755" t="n">
-        <v>0.01172333473501165</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D755" t="n">
         <v>1</v>
@@ -15553,7 +15553,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C756" t="n">
-        <v>0.1462988249500097</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D756" t="n">
         <v>0</v>
@@ -15573,7 +15573,7 @@
         <v>0</v>
       </c>
       <c r="C757" t="n">
-        <v>0.1952921492766775</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D757" t="n">
         <v>0</v>
@@ -15593,7 +15593,7 @@
         <v>0.4</v>
       </c>
       <c r="C758" t="n">
-        <v>0.1968763044276131</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D758" t="n">
         <v>0</v>
@@ -15613,7 +15613,7 @@
         <v>0</v>
       </c>
       <c r="C759" t="n">
-        <v>0.01771984943067589</v>
+        <v>0</v>
       </c>
       <c r="D759" t="n">
         <v>0</v>
@@ -15633,7 +15633,7 @@
         <v>0.2</v>
       </c>
       <c r="C760" t="n">
-        <v>0.1122685760917757</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D760" t="n">
         <v>0</v>
@@ -15653,7 +15653,7 @@
         <v>0.2</v>
       </c>
       <c r="C761" t="n">
-        <v>0.09016954536346133</v>
+        <v>0.5</v>
       </c>
       <c r="D761" t="n">
         <v>1</v>
@@ -15673,7 +15673,7 @@
         <v>0</v>
       </c>
       <c r="C762" t="n">
-        <v>0.172797910233546</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D762" t="n">
         <v>1</v>
@@ -15693,7 +15693,7 @@
         <v>0</v>
       </c>
       <c r="C763" t="n">
-        <v>0.02237094594394863</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D763" t="n">
         <v>1</v>
@@ -15713,7 +15713,7 @@
         <v>0</v>
       </c>
       <c r="C764" t="n">
-        <v>0.06296469149682615</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D764" t="n">
         <v>0</v>
@@ -15733,7 +15733,7 @@
         <v>0.4</v>
       </c>
       <c r="C765" t="n">
-        <v>0.1204740153500667</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D765" t="n">
         <v>0</v>
@@ -15753,7 +15753,7 @@
         <v>0</v>
       </c>
       <c r="C766" t="n">
-        <v>0.008293250585113841</v>
+        <v>0</v>
       </c>
       <c r="D766" t="n">
         <v>0</v>
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="C767" t="n">
-        <v>0.02239333211007791</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D767" t="n">
         <v>1</v>
@@ -15793,7 +15793,7 @@
         <v>0.2</v>
       </c>
       <c r="C768" t="n">
-        <v>0.06137657512835364</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D768" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         <v>0</v>
       </c>
       <c r="C769" t="n">
-        <v>0.5810153335820536</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D769" t="n">
         <v>1</v>
@@ -15833,7 +15833,7 @@
         <v>0.2</v>
       </c>
       <c r="C770" t="n">
-        <v>0.05928239573162533</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D770" t="n">
         <v>0</v>
@@ -15853,7 +15853,7 @@
         <v>0</v>
       </c>
       <c r="C771" t="n">
-        <v>0.008191827961727977</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D771" t="n">
         <v>1</v>
@@ -15873,7 +15873,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C772" t="n">
-        <v>0.05757857358166688</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D772" t="n">
         <v>1</v>
@@ -15893,7 +15893,7 @@
         <v>0.2</v>
       </c>
       <c r="C773" t="n">
-        <v>0.3196914660400854</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D773" t="n">
         <v>1</v>
@@ -15913,7 +15913,7 @@
         <v>0.4</v>
       </c>
       <c r="C774" t="n">
-        <v>0.06202650274505811</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D774" t="n">
         <v>0</v>
@@ -15933,7 +15933,7 @@
         <v>0.2</v>
       </c>
       <c r="C775" t="n">
-        <v>0.1206714905848922</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D775" t="n">
         <v>0</v>
@@ -15953,7 +15953,7 @@
         <v>0</v>
       </c>
       <c r="C776" t="n">
-        <v>0.2005701593021397</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D776" t="n">
         <v>0</v>
@@ -15973,7 +15973,7 @@
         <v>0.4</v>
       </c>
       <c r="C777" t="n">
-        <v>0.1253145743766134</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D777" t="n">
         <v>0</v>
@@ -15993,7 +15993,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C778" t="n">
-        <v>0.07006318193540333</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D778" t="n">
         <v>1</v>
@@ -16013,7 +16013,7 @@
         <v>0</v>
       </c>
       <c r="C779" t="n">
-        <v>0.3799288268897911</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D779" t="n">
         <v>1</v>
@@ -16033,7 +16033,7 @@
         <v>0.2</v>
       </c>
       <c r="C780" t="n">
-        <v>0.05252298714098712</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D780" t="n">
         <v>0</v>
@@ -16053,7 +16053,7 @@
         <v>0.2</v>
       </c>
       <c r="C781" t="n">
-        <v>0.151943284200258</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D781" t="n">
         <v>1</v>
@@ -16073,7 +16073,7 @@
         <v>0.2</v>
       </c>
       <c r="C782" t="n">
-        <v>0.09688008294110828</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D782" t="n">
         <v>0</v>
@@ -16093,7 +16093,7 @@
         <v>0</v>
       </c>
       <c r="C783" t="n">
-        <v>0.0363002087065961</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D783" t="n">
         <v>0</v>
@@ -16113,7 +16113,7 @@
         <v>0.4</v>
       </c>
       <c r="C784" t="n">
-        <v>0.1725660187694762</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D784" t="n">
         <v>0</v>
@@ -16133,7 +16133,7 @@
         <v>0</v>
       </c>
       <c r="C785" t="n">
-        <v>0.04253372865989361</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D785" t="n">
         <v>0</v>
@@ -16153,7 +16153,7 @@
         <v>0.4</v>
       </c>
       <c r="C786" t="n">
-        <v>0.1646711967168855</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D786" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         <v>0.4</v>
       </c>
       <c r="C787" t="n">
-        <v>0.7252224469657266</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D787" t="n">
         <v>1</v>
@@ -16193,7 +16193,7 @@
         <v>0</v>
       </c>
       <c r="C788" t="n">
-        <v>0.0263550962461588</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D788" t="n">
         <v>0</v>
@@ -16213,7 +16213,7 @@
         <v>0</v>
       </c>
       <c r="C789" t="n">
-        <v>0.02071379458245634</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D789" t="n">
         <v>1</v>
@@ -16233,7 +16233,7 @@
         <v>0</v>
       </c>
       <c r="C790" t="n">
-        <v>0.1384826050035124</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D790" t="n">
         <v>0</v>
@@ -16253,7 +16253,7 @@
         <v>0.2</v>
       </c>
       <c r="C791" t="n">
-        <v>0.1774894217397867</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D791" t="n">
         <v>0</v>
@@ -16273,7 +16273,7 @@
         <v>0.2</v>
       </c>
       <c r="C792" t="n">
-        <v>0.3968577060964478</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D792" t="n">
         <v>1</v>
@@ -16293,7 +16293,7 @@
         <v>0.4</v>
       </c>
       <c r="C793" t="n">
-        <v>0.5738592598920792</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D793" t="n">
         <v>0</v>
@@ -16313,7 +16313,7 @@
         <v>0</v>
       </c>
       <c r="C794" t="n">
-        <v>0.1860345781049277</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D794" t="n">
         <v>1</v>
@@ -16333,7 +16333,7 @@
         <v>0.4</v>
       </c>
       <c r="C795" t="n">
-        <v>0.1463543820427039</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D795" t="n">
         <v>0</v>
@@ -16353,7 +16353,7 @@
         <v>0.8</v>
       </c>
       <c r="C796" t="n">
-        <v>0.3310602587912806</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D796" t="n">
         <v>1</v>
@@ -16373,7 +16373,7 @@
         <v>0</v>
       </c>
       <c r="C797" t="n">
-        <v>0.03964058470024684</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D797" t="n">
         <v>0</v>
@@ -16393,7 +16393,7 @@
         <v>0</v>
       </c>
       <c r="C798" t="n">
-        <v>0.1726668720186782</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D798" t="n">
         <v>1</v>
@@ -16413,7 +16413,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C799" t="n">
-        <v>0.386385634087169</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D799" t="n">
         <v>0</v>
@@ -16433,7 +16433,7 @@
         <v>0.4</v>
       </c>
       <c r="C800" t="n">
-        <v>0.06197675570921526</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D800" t="n">
         <v>0</v>
@@ -16453,7 +16453,7 @@
         <v>0.4</v>
       </c>
       <c r="C801" t="n">
-        <v>0.2164305139872252</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D801" t="n">
         <v>0</v>
@@ -16473,7 +16473,7 @@
         <v>0</v>
       </c>
       <c r="C802" t="n">
-        <v>0.0964381168049141</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D802" t="n">
         <v>0</v>
@@ -16493,7 +16493,7 @@
         <v>0.2</v>
       </c>
       <c r="C803" t="n">
-        <v>0.1690314333086408</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D803" t="n">
         <v>0</v>
@@ -16513,7 +16513,7 @@
         <v>0.4</v>
       </c>
       <c r="C804" t="n">
-        <v>0.1186183606266512</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D804" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         <v>0.2</v>
       </c>
       <c r="C805" t="n">
-        <v>0.1595382412719164</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D805" t="n">
         <v>0</v>
@@ -16553,7 +16553,7 @@
         <v>0</v>
       </c>
       <c r="C806" t="n">
-        <v>0.553523694560918</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D806" t="n">
         <v>1</v>
@@ -16573,7 +16573,7 @@
         <v>0</v>
       </c>
       <c r="C807" t="n">
-        <v>0.2341967194237826</v>
+        <v>0</v>
       </c>
       <c r="D807" t="n">
         <v>1</v>
@@ -16593,7 +16593,7 @@
         <v>0.2</v>
       </c>
       <c r="C808" t="n">
-        <v>0.1573988128953984</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D808" t="n">
         <v>0</v>
@@ -16613,7 +16613,7 @@
         <v>0</v>
       </c>
       <c r="C809" t="n">
-        <v>0.01281341706461368</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D809" t="n">
         <v>1</v>
@@ -16633,7 +16633,7 @@
         <v>0</v>
       </c>
       <c r="C810" t="n">
-        <v>0.0349265959280074</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D810" t="n">
         <v>1</v>
@@ -16653,7 +16653,7 @@
         <v>0.2</v>
       </c>
       <c r="C811" t="n">
-        <v>0.4110944465355452</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D811" t="n">
         <v>0</v>
@@ -16673,7 +16673,7 @@
         <v>0.4</v>
       </c>
       <c r="C812" t="n">
-        <v>0.2546636683359237</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D812" t="n">
         <v>0</v>
@@ -16693,7 +16693,7 @@
         <v>0.4</v>
       </c>
       <c r="C813" t="n">
-        <v>0.4050215052312052</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D813" t="n">
         <v>0</v>
@@ -16713,7 +16713,7 @@
         <v>0.2</v>
       </c>
       <c r="C814" t="n">
-        <v>0.6471722621107439</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D814" t="n">
         <v>0</v>
@@ -16733,7 +16733,7 @@
         <v>0.2</v>
       </c>
       <c r="C815" t="n">
-        <v>0.4448771855078089</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D815" t="n">
         <v>1</v>
@@ -16753,7 +16753,7 @@
         <v>0.2</v>
       </c>
       <c r="C816" t="n">
-        <v>0.03506185239218657</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D816" t="n">
         <v>1</v>
@@ -16773,7 +16773,7 @@
         <v>0.2</v>
       </c>
       <c r="C817" t="n">
-        <v>0.1749968325185443</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D817" t="n">
         <v>0</v>
@@ -16793,7 +16793,7 @@
         <v>0.2</v>
       </c>
       <c r="C818" t="n">
-        <v>0.05852597480773111</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D818" t="n">
         <v>0</v>
@@ -16813,7 +16813,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C819" t="n">
-        <v>0.1767548021533957</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D819" t="n">
         <v>1</v>
@@ -16833,7 +16833,7 @@
         <v>0</v>
       </c>
       <c r="C820" t="n">
-        <v>0.2168495945347916</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D820" t="n">
         <v>0</v>
@@ -16853,7 +16853,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C821" t="n">
-        <v>0.0781664876659702</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D821" t="n">
         <v>1</v>
@@ -16873,7 +16873,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C822" t="n">
-        <v>0.7417528582717023</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D822" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         <v>0.4</v>
       </c>
       <c r="C823" t="n">
-        <v>0.1318244799462808</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D823" t="n">
         <v>1</v>
@@ -16913,7 +16913,7 @@
         <v>0</v>
       </c>
       <c r="C824" t="n">
-        <v>0.0192029756398043</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D824" t="n">
         <v>1</v>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="C825" t="n">
-        <v>0.03156991712468697</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D825" t="n">
         <v>1</v>
@@ -16953,7 +16953,7 @@
         <v>0.4</v>
       </c>
       <c r="C826" t="n">
-        <v>0.3377030855775813</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D826" t="n">
         <v>0</v>
@@ -16973,7 +16973,7 @@
         <v>0.2</v>
       </c>
       <c r="C827" t="n">
-        <v>0.01755662367979804</v>
+        <v>0</v>
       </c>
       <c r="D827" t="n">
         <v>0</v>
@@ -16993,7 +16993,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C828" t="n">
-        <v>0.1653988951533748</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D828" t="n">
         <v>1</v>
@@ -17013,7 +17013,7 @@
         <v>0.2</v>
       </c>
       <c r="C829" t="n">
-        <v>0.1651259557149229</v>
+        <v>0</v>
       </c>
       <c r="D829" t="n">
         <v>1</v>
@@ -17033,7 +17033,7 @@
         <v>0</v>
       </c>
       <c r="C830" t="n">
-        <v>0.07022620840531679</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D830" t="n">
         <v>1</v>
@@ -17053,7 +17053,7 @@
         <v>0</v>
       </c>
       <c r="C831" t="n">
-        <v>0.3098284130884647</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D831" t="n">
         <v>0</v>
@@ -17073,7 +17073,7 @@
         <v>0.8</v>
       </c>
       <c r="C832" t="n">
-        <v>0.1924042500666565</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D832" t="n">
         <v>1</v>
@@ -17093,7 +17093,7 @@
         <v>0.2</v>
       </c>
       <c r="C833" t="n">
-        <v>0.1074552128164293</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D833" t="n">
         <v>0</v>
@@ -17113,7 +17113,7 @@
         <v>0</v>
       </c>
       <c r="C834" t="n">
-        <v>0.537560793470486</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D834" t="n">
         <v>0</v>
@@ -17133,7 +17133,7 @@
         <v>0.4</v>
       </c>
       <c r="C835" t="n">
-        <v>0.04776630018530206</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D835" t="n">
         <v>1</v>
@@ -17153,7 +17153,7 @@
         <v>0.2</v>
       </c>
       <c r="C836" t="n">
-        <v>0.09638444759433558</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D836" t="n">
         <v>0</v>
@@ -17173,7 +17173,7 @@
         <v>0</v>
       </c>
       <c r="C837" t="n">
-        <v>0.3290467434485833</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D837" t="n">
         <v>0</v>
@@ -17193,7 +17193,7 @@
         <v>0.2</v>
       </c>
       <c r="C838" t="n">
-        <v>0.6649907539920045</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D838" t="n">
         <v>1</v>
@@ -17213,7 +17213,7 @@
         <v>0</v>
       </c>
       <c r="C839" t="n">
-        <v>0.02536277953089833</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D839" t="n">
         <v>1</v>
@@ -17233,7 +17233,7 @@
         <v>0</v>
       </c>
       <c r="C840" t="n">
-        <v>0.04201136526214322</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D840" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         <v>1</v>
       </c>
       <c r="C841" t="n">
-        <v>0.08999226908450712</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D841" t="n">
         <v>1</v>
@@ -17273,7 +17273,7 @@
         <v>0.2</v>
       </c>
       <c r="C842" t="n">
-        <v>0.1058241965433717</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D842" t="n">
         <v>0</v>
@@ -17293,7 +17293,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C843" t="n">
-        <v>0.08479559009426278</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D843" t="n">
         <v>0</v>
@@ -17313,7 +17313,7 @@
         <v>0.4</v>
       </c>
       <c r="C844" t="n">
-        <v>0.08977682196026136</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D844" t="n">
         <v>1</v>
@@ -17333,7 +17333,7 @@
         <v>0</v>
       </c>
       <c r="C845" t="n">
-        <v>0.1681021333012759</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D845" t="n">
         <v>0</v>
@@ -17353,7 +17353,7 @@
         <v>0</v>
       </c>
       <c r="C846" t="n">
-        <v>0.2136411392859938</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D846" t="n">
         <v>0</v>
@@ -17373,7 +17373,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C847" t="n">
-        <v>0.4851119762642661</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D847" t="n">
         <v>0</v>
@@ -17393,7 +17393,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C848" t="n">
-        <v>0.04456305877724581</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D848" t="n">
         <v>1</v>
@@ -17413,7 +17413,7 @@
         <v>0</v>
       </c>
       <c r="C849" t="n">
-        <v>0.2069744020375342</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D849" t="n">
         <v>0</v>
@@ -17433,7 +17433,7 @@
         <v>0</v>
       </c>
       <c r="C850" t="n">
-        <v>0.5957394915089878</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D850" t="n">
         <v>1</v>
@@ -17453,7 +17453,7 @@
         <v>0</v>
       </c>
       <c r="C851" t="n">
-        <v>0.1084700295726558</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D851" t="n">
         <v>1</v>
@@ -17473,7 +17473,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C852" t="n">
-        <v>0.1488114105925923</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D852" t="n">
         <v>1</v>
@@ -17493,7 +17493,7 @@
         <v>0.4</v>
       </c>
       <c r="C853" t="n">
-        <v>0.3231152895141349</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D853" t="n">
         <v>1</v>
@@ -17513,7 +17513,7 @@
         <v>0</v>
       </c>
       <c r="C854" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D854" t="n">
         <v>1</v>
@@ -17533,7 +17533,7 @@
         <v>0.4</v>
       </c>
       <c r="C855" t="n">
-        <v>0.08596796651484526</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D855" t="n">
         <v>1</v>
@@ -17553,7 +17553,7 @@
         <v>0</v>
       </c>
       <c r="C856" t="n">
-        <v>0.06932801086944557</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D856" t="n">
         <v>0</v>
@@ -17573,7 +17573,7 @@
         <v>0</v>
       </c>
       <c r="C857" t="n">
-        <v>0.01398558688370655</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D857" t="n">
         <v>1</v>
@@ -17593,7 +17593,7 @@
         <v>0</v>
       </c>
       <c r="C858" t="n">
-        <v>0.01379089507524889</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D858" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C859" t="n">
-        <v>0.05106261719120755</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D859" t="n">
         <v>1</v>
@@ -17633,7 +17633,7 @@
         <v>0.4</v>
       </c>
       <c r="C860" t="n">
-        <v>0.3038210033364516</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D860" t="n">
         <v>0</v>
@@ -17653,7 +17653,7 @@
         <v>0</v>
       </c>
       <c r="C861" t="n">
-        <v>0.1622187556961363</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D861" t="n">
         <v>0</v>
@@ -17673,7 +17673,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C862" t="n">
-        <v>0.0377607348275804</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D862" t="n">
         <v>1</v>
@@ -17693,7 +17693,7 @@
         <v>0</v>
       </c>
       <c r="C863" t="n">
-        <v>0.4197856036183947</v>
+        <v>1</v>
       </c>
       <c r="D863" t="n">
         <v>1</v>
@@ -17713,7 +17713,7 @@
         <v>0</v>
       </c>
       <c r="C864" t="n">
-        <v>0.5449068209623159</v>
+        <v>0</v>
       </c>
       <c r="D864" t="n">
         <v>1</v>
@@ -17733,7 +17733,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C865" t="n">
-        <v>0.08235469679535561</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D865" t="n">
         <v>0</v>
@@ -17753,7 +17753,7 @@
         <v>0</v>
       </c>
       <c r="C866" t="n">
-        <v>0.008330560861995968</v>
+        <v>0</v>
       </c>
       <c r="D866" t="n">
         <v>0</v>
@@ -17773,7 +17773,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C867" t="n">
-        <v>0.3863279141859676</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D867" t="n">
         <v>1</v>
@@ -17793,7 +17793,7 @@
         <v>0.2</v>
       </c>
       <c r="C868" t="n">
-        <v>0.06512569915491559</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D868" t="n">
         <v>1</v>
@@ -17813,7 +17813,7 @@
         <v>0</v>
       </c>
       <c r="C869" t="n">
-        <v>0.01012820855694309</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D869" t="n">
         <v>0</v>
@@ -17833,7 +17833,7 @@
         <v>1</v>
       </c>
       <c r="C870" t="n">
-        <v>0.0901948751941216</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D870" t="n">
         <v>1</v>
@@ -17853,7 +17853,7 @@
         <v>0</v>
       </c>
       <c r="C871" t="n">
-        <v>0.1955631583739675</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D871" t="n">
         <v>1</v>
@@ -17873,7 +17873,7 @@
         <v>0.2</v>
       </c>
       <c r="C872" t="n">
-        <v>0.09188590838651699</v>
+        <v>0.5</v>
       </c>
       <c r="D872" t="n">
         <v>0</v>
@@ -17893,7 +17893,7 @@
         <v>0</v>
       </c>
       <c r="C873" t="n">
-        <v>0.1995849304820776</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D873" t="n">
         <v>1</v>
@@ -17913,7 +17913,7 @@
         <v>0</v>
       </c>
       <c r="C874" t="n">
-        <v>0.2008903493146554</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D874" t="n">
         <v>0</v>
@@ -17933,7 +17933,7 @@
         <v>0</v>
       </c>
       <c r="C875" t="n">
-        <v>0.7770048045317937</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D875" t="n">
         <v>0</v>
@@ -17953,7 +17953,7 @@
         <v>0.2</v>
       </c>
       <c r="C876" t="n">
-        <v>0.0691625385307162</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D876" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C877" t="n">
-        <v>0.6441846996435654</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D877" t="n">
         <v>1</v>
@@ -17993,7 +17993,7 @@
         <v>0</v>
       </c>
       <c r="C878" t="n">
-        <v>0.2207674452802399</v>
+        <v>1</v>
       </c>
       <c r="D878" t="n">
         <v>0</v>
@@ -18013,7 +18013,7 @@
         <v>0.2</v>
       </c>
       <c r="C879" t="n">
-        <v>0.3072629369765089</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D879" t="n">
         <v>1</v>
@@ -18033,7 +18033,7 @@
         <v>0.2</v>
       </c>
       <c r="C880" t="n">
-        <v>0.1656726063378636</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D880" t="n">
         <v>0</v>
@@ -18053,7 +18053,7 @@
         <v>0.8</v>
       </c>
       <c r="C881" t="n">
-        <v>0.2159152189632726</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D881" t="n">
         <v>0</v>
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="C882" t="n">
-        <v>0.1633867007587843</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D882" t="n">
         <v>1</v>
@@ -18093,7 +18093,7 @@
         <v>0.4</v>
       </c>
       <c r="C883" t="n">
-        <v>0.04652767870520115</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D883" t="n">
         <v>0</v>
@@ -18113,7 +18113,7 @@
         <v>0</v>
       </c>
       <c r="C884" t="n">
-        <v>0.0185403672466317</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D884" t="n">
         <v>0</v>
@@ -18133,7 +18133,7 @@
         <v>0.4</v>
       </c>
       <c r="C885" t="n">
-        <v>0.05389891727250447</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D885" t="n">
         <v>1</v>
@@ -18153,7 +18153,7 @@
         <v>0.4</v>
       </c>
       <c r="C886" t="n">
-        <v>0.2771388512385103</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D886" t="n">
         <v>1</v>
@@ -18173,7 +18173,7 @@
         <v>0</v>
       </c>
       <c r="C887" t="n">
-        <v>0.01276186104564929</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D887" t="n">
         <v>1</v>
@@ -18193,7 +18193,7 @@
         <v>0</v>
       </c>
       <c r="C888" t="n">
-        <v>0.05496031290393606</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D888" t="n">
         <v>1</v>
@@ -18213,7 +18213,7 @@
         <v>0.4</v>
       </c>
       <c r="C889" t="n">
-        <v>0.1202999007246168</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D889" t="n">
         <v>0</v>
@@ -18233,7 +18233,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C890" t="n">
-        <v>0.7342200256172541</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D890" t="n">
         <v>0</v>
@@ -18253,7 +18253,7 @@
         <v>0.2</v>
       </c>
       <c r="C891" t="n">
-        <v>0.1420711817780361</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D891" t="n">
         <v>0</v>
@@ -18273,7 +18273,7 @@
         <v>0</v>
       </c>
       <c r="C892" t="n">
-        <v>0.01683522170839143</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D892" t="n">
         <v>0</v>
@@ -18293,7 +18293,7 @@
         <v>0.2</v>
       </c>
       <c r="C893" t="n">
-        <v>0.6594935601208665</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D893" t="n">
         <v>0</v>
@@ -18313,7 +18313,7 @@
         <v>0</v>
       </c>
       <c r="C894" t="n">
-        <v>0.132467719856499</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D894" t="n">
         <v>0</v>
@@ -18333,7 +18333,7 @@
         <v>0</v>
       </c>
       <c r="C895" t="n">
-        <v>0.01847377405546936</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D895" t="n">
         <v>0</v>
@@ -18353,7 +18353,7 @@
         <v>0</v>
       </c>
       <c r="C896" t="n">
-        <v>0.1934299898599062</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D896" t="n">
         <v>0</v>
@@ -18373,7 +18373,7 @@
         <v>0.4</v>
       </c>
       <c r="C897" t="n">
-        <v>0.09823260528653202</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D897" t="n">
         <v>1</v>
@@ -18393,7 +18393,7 @@
         <v>0</v>
       </c>
       <c r="C898" t="n">
-        <v>0.1875165468576793</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D898" t="n">
         <v>0</v>
@@ -18413,7 +18413,7 @@
         <v>1</v>
       </c>
       <c r="C899" t="n">
-        <v>0.2172806107920368</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D899" t="n">
         <v>1</v>
@@ -18433,7 +18433,7 @@
         <v>0</v>
       </c>
       <c r="C900" t="n">
-        <v>0.055674398417079</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D900" t="n">
         <v>0</v>
@@ -18453,7 +18453,7 @@
         <v>0.2</v>
       </c>
       <c r="C901" t="n">
-        <v>0.07334489449349066</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D901" t="n">
         <v>0</v>
@@ -18473,7 +18473,7 @@
         <v>0.4</v>
       </c>
       <c r="C902" t="n">
-        <v>0.1168138121165946</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D902" t="n">
         <v>1</v>
@@ -18493,7 +18493,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C903" t="n">
-        <v>0.3739167892644109</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D903" t="n">
         <v>0</v>
@@ -18513,7 +18513,7 @@
         <v>0</v>
       </c>
       <c r="C904" t="n">
-        <v>0.389775573127462</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D904" t="n">
         <v>0</v>
@@ -18533,7 +18533,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C905" t="n">
-        <v>0.5151304697703907</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D905" t="n">
         <v>1</v>
@@ -18553,7 +18553,7 @@
         <v>0.2</v>
       </c>
       <c r="C906" t="n">
-        <v>0.009820539896123984</v>
+        <v>0</v>
       </c>
       <c r="D906" t="n">
         <v>1</v>
@@ -18573,7 +18573,7 @@
         <v>0</v>
       </c>
       <c r="C907" t="n">
-        <v>0.05734224506592081</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D907" t="n">
         <v>1</v>
@@ -18593,7 +18593,7 @@
         <v>0</v>
       </c>
       <c r="C908" t="n">
-        <v>0.1603092837248543</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D908" t="n">
         <v>1</v>
@@ -18613,7 +18613,7 @@
         <v>0.4</v>
       </c>
       <c r="C909" t="n">
-        <v>0.0498973376131321</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D909" t="n">
         <v>0</v>
@@ -18633,7 +18633,7 @@
         <v>0.4</v>
       </c>
       <c r="C910" t="n">
-        <v>0.7538680143585282</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D910" t="n">
         <v>1</v>
@@ -18653,7 +18653,7 @@
         <v>0</v>
       </c>
       <c r="C911" t="n">
-        <v>0.2458227993544349</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D911" t="n">
         <v>1</v>
@@ -18673,7 +18673,7 @@
         <v>0.2</v>
       </c>
       <c r="C912" t="n">
-        <v>0.3119355436330594</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D912" t="n">
         <v>0</v>
@@ -18693,7 +18693,7 @@
         <v>0</v>
       </c>
       <c r="C913" t="n">
-        <v>0.584950603923964</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D913" t="n">
         <v>0</v>
@@ -18713,7 +18713,7 @@
         <v>0.2</v>
       </c>
       <c r="C914" t="n">
-        <v>0.105767665820823</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="D914" t="n">
         <v>0</v>
@@ -18733,7 +18733,7 @@
         <v>0</v>
       </c>
       <c r="C915" t="n">
-        <v>0.0002362984202534807</v>
+        <v>0</v>
       </c>
       <c r="D915" t="n">
         <v>1</v>
@@ -18753,7 +18753,7 @@
         <v>0.2</v>
       </c>
       <c r="C916" t="n">
-        <v>0.05976448973352046</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D916" t="n">
         <v>0</v>
@@ -18773,7 +18773,7 @@
         <v>0</v>
       </c>
       <c r="C917" t="n">
-        <v>0.1515054492804642</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D917" t="n">
         <v>1</v>
@@ -18793,7 +18793,7 @@
         <v>0</v>
       </c>
       <c r="C918" t="n">
-        <v>0.009603766130029615</v>
+        <v>0</v>
       </c>
       <c r="D918" t="n">
         <v>1</v>
@@ -18813,7 +18813,7 @@
         <v>0</v>
       </c>
       <c r="C919" t="n">
-        <v>0.07071843238733598</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D919" t="n">
         <v>0</v>
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="C920" t="n">
-        <v>0.02287167556288424</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D920" t="n">
         <v>0</v>
@@ -18853,7 +18853,7 @@
         <v>0.2</v>
       </c>
       <c r="C921" t="n">
-        <v>0.1660106571304946</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D921" t="n">
         <v>1</v>
@@ -18873,7 +18873,7 @@
         <v>0</v>
       </c>
       <c r="C922" t="n">
-        <v>0.03651796504985361</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D922" t="n">
         <v>0</v>
@@ -18893,7 +18893,7 @@
         <v>0</v>
       </c>
       <c r="C923" t="n">
-        <v>0.02184355090519556</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D923" t="n">
         <v>0</v>
@@ -18913,7 +18913,7 @@
         <v>0</v>
       </c>
       <c r="C924" t="n">
-        <v>0.2168173720229388</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D924" t="n">
         <v>0</v>
@@ -18933,7 +18933,7 @@
         <v>0</v>
       </c>
       <c r="C925" t="n">
-        <v>0.2796256499243021</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D925" t="n">
         <v>1</v>
@@ -18953,7 +18953,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C926" t="n">
-        <v>0.1467238603381485</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D926" t="n">
         <v>1</v>
@@ -18973,7 +18973,7 @@
         <v>0.8</v>
       </c>
       <c r="C927" t="n">
-        <v>0.5768314933421209</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D927" t="n">
         <v>0</v>
@@ -18993,7 +18993,7 @@
         <v>0.2</v>
       </c>
       <c r="C928" t="n">
-        <v>0.1173352604486922</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D928" t="n">
         <v>1</v>
@@ -19013,7 +19013,7 @@
         <v>0</v>
       </c>
       <c r="C929" t="n">
-        <v>0.001958421069875566</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D929" t="n">
         <v>1</v>
@@ -19033,7 +19033,7 @@
         <v>0.2</v>
       </c>
       <c r="C930" t="n">
-        <v>0.9345740485270287</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D930" t="n">
         <v>0</v>
@@ -19053,7 +19053,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C931" t="n">
-        <v>0.121740132722902</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D931" t="n">
         <v>1</v>
@@ -19073,7 +19073,7 @@
         <v>0.2</v>
       </c>
       <c r="C932" t="n">
-        <v>0.1354379888029277</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D932" t="n">
         <v>0</v>
@@ -19093,7 +19093,7 @@
         <v>0.2</v>
       </c>
       <c r="C933" t="n">
-        <v>0.603922497749788</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D933" t="n">
         <v>1</v>
@@ -19113,7 +19113,7 @@
         <v>0.2</v>
       </c>
       <c r="C934" t="n">
-        <v>0.05434835847834216</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D934" t="n">
         <v>1</v>
@@ -19133,7 +19133,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C935" t="n">
-        <v>0.08255232820138579</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="D935" t="n">
         <v>0</v>
@@ -19153,7 +19153,7 @@
         <v>0</v>
       </c>
       <c r="C936" t="n">
-        <v>0.0490021081435426</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D936" t="n">
         <v>0</v>
@@ -19173,7 +19173,7 @@
         <v>0.2</v>
       </c>
       <c r="C937" t="n">
-        <v>0.1209518829687336</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D937" t="n">
         <v>0</v>
@@ -19193,7 +19193,7 @@
         <v>0.2</v>
       </c>
       <c r="C938" t="n">
-        <v>0.03443187564688746</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="D938" t="n">
         <v>0</v>
@@ -19213,7 +19213,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C939" t="n">
-        <v>0.1373193084743805</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D939" t="n">
         <v>1</v>
@@ -19233,7 +19233,7 @@
         <v>0.2</v>
       </c>
       <c r="C940" t="n">
-        <v>0.04302858152385924</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D940" t="n">
         <v>0</v>
@@ -19253,7 +19253,7 @@
         <v>0</v>
       </c>
       <c r="C941" t="n">
-        <v>0.1248835906550358</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D941" t="n">
         <v>1</v>
@@ -19273,7 +19273,7 @@
         <v>0.2</v>
       </c>
       <c r="C942" t="n">
-        <v>0.1291154610236294</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D942" t="n">
         <v>1</v>
@@ -19293,7 +19293,7 @@
         <v>0</v>
       </c>
       <c r="C943" t="n">
-        <v>0.685405225312395</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D943" t="n">
         <v>1</v>
@@ -19313,7 +19313,7 @@
         <v>0</v>
       </c>
       <c r="C944" t="n">
-        <v>0.07054013448841745</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D944" t="n">
         <v>0</v>
@@ -19333,7 +19333,7 @@
         <v>0.8</v>
       </c>
       <c r="C945" t="n">
-        <v>0.09959069773825813</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D945" t="n">
         <v>0</v>
@@ -19353,7 +19353,7 @@
         <v>0</v>
       </c>
       <c r="C946" t="n">
-        <v>0.01836575482546667</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D946" t="n">
         <v>1</v>
@@ -19373,7 +19373,7 @@
         <v>0</v>
       </c>
       <c r="C947" t="n">
-        <v>0.1727875785322825</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D947" t="n">
         <v>1</v>
@@ -19393,7 +19393,7 @@
         <v>0.2</v>
       </c>
       <c r="C948" t="n">
-        <v>0.1275753892621897</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D948" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         <v>0.4</v>
       </c>
       <c r="C949" t="n">
-        <v>0.09903235639921602</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D949" t="n">
         <v>0</v>
@@ -19433,7 +19433,7 @@
         <v>0</v>
       </c>
       <c r="C950" t="n">
-        <v>0.1193399195826542</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D950" t="n">
         <v>1</v>
@@ -19453,7 +19453,7 @@
         <v>0</v>
       </c>
       <c r="C951" t="n">
-        <v>0.2515759303375006</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D951" t="n">
         <v>1</v>
@@ -19473,7 +19473,7 @@
         <v>0.2</v>
       </c>
       <c r="C952" t="n">
-        <v>0.112913246757979</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D952" t="n">
         <v>1</v>
@@ -19493,7 +19493,7 @@
         <v>0</v>
       </c>
       <c r="C953" t="n">
-        <v>0.1759591057982931</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D953" t="n">
         <v>1</v>
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="C954" t="n">
-        <v>0.1419947327197497</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D954" t="n">
         <v>1</v>
@@ -19533,7 +19533,7 @@
         <v>0</v>
       </c>
       <c r="C955" t="n">
-        <v>0.1955717510437949</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D955" t="n">
         <v>1</v>
@@ -19553,7 +19553,7 @@
         <v>0</v>
       </c>
       <c r="C956" t="n">
-        <v>0.0176639970767978</v>
+        <v>0</v>
       </c>
       <c r="D956" t="n">
         <v>0</v>
@@ -19573,7 +19573,7 @@
         <v>0.2</v>
       </c>
       <c r="C957" t="n">
-        <v>0.02616248265347254</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D957" t="n">
         <v>0</v>
@@ -19593,7 +19593,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C958" t="n">
-        <v>0.6476315030596788</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D958" t="n">
         <v>0</v>
@@ -19613,7 +19613,7 @@
         <v>0</v>
       </c>
       <c r="C959" t="n">
-        <v>0.1422068620192865</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D959" t="n">
         <v>1</v>
@@ -19633,7 +19633,7 @@
         <v>0</v>
       </c>
       <c r="C960" t="n">
-        <v>0.3463547832400217</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D960" t="n">
         <v>1</v>
@@ -19653,7 +19653,7 @@
         <v>0</v>
       </c>
       <c r="C961" t="n">
-        <v>0.01128990921157662</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D961" t="n">
         <v>1</v>
@@ -19673,7 +19673,7 @@
         <v>0</v>
       </c>
       <c r="C962" t="n">
-        <v>0.04983201900675009</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D962" t="n">
         <v>0</v>
@@ -19693,7 +19693,7 @@
         <v>0.2</v>
       </c>
       <c r="C963" t="n">
-        <v>0.3431901429614618</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D963" t="n">
         <v>1</v>
@@ -19713,7 +19713,7 @@
         <v>0</v>
       </c>
       <c r="C964" t="n">
-        <v>0.2090836625296118</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D964" t="n">
         <v>1</v>
@@ -19733,7 +19733,7 @@
         <v>0</v>
       </c>
       <c r="C965" t="n">
-        <v>0.1164069104828227</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D965" t="n">
         <v>0</v>
@@ -19753,7 +19753,7 @@
         <v>0.2</v>
       </c>
       <c r="C966" t="n">
-        <v>0.08407022934549439</v>
+        <v>0.5</v>
       </c>
       <c r="D966" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         <v>0</v>
       </c>
       <c r="C967" t="n">
-        <v>0.1423099740572152</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D967" t="n">
         <v>1</v>
@@ -19793,7 +19793,7 @@
         <v>0</v>
       </c>
       <c r="C968" t="n">
-        <v>0.01641102330030305</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D968" t="n">
         <v>0</v>
@@ -19813,7 +19813,7 @@
         <v>0</v>
       </c>
       <c r="C969" t="n">
-        <v>0.02172304448594729</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D969" t="n">
         <v>0</v>
@@ -19833,7 +19833,7 @@
         <v>0</v>
       </c>
       <c r="C970" t="n">
-        <v>0.2159178177497264</v>
+        <v>1</v>
       </c>
       <c r="D970" t="n">
         <v>1</v>
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="C971" t="n">
-        <v>0.03130237226261036</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D971" t="n">
         <v>0</v>
@@ -19873,7 +19873,7 @@
         <v>0.4</v>
       </c>
       <c r="C972" t="n">
-        <v>0.04662445930220449</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D972" t="n">
         <v>0</v>
@@ -19893,7 +19893,7 @@
         <v>0.2</v>
       </c>
       <c r="C973" t="n">
-        <v>0.1028414900245906</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D973" t="n">
         <v>0</v>
@@ -19913,7 +19913,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C974" t="n">
-        <v>0.2494482626287695</v>
+        <v>1</v>
       </c>
       <c r="D974" t="n">
         <v>0</v>
@@ -19933,7 +19933,7 @@
         <v>0.2</v>
       </c>
       <c r="C975" t="n">
-        <v>0.7609265843462858</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D975" t="n">
         <v>0</v>
@@ -19953,7 +19953,7 @@
         <v>0.2</v>
       </c>
       <c r="C976" t="n">
-        <v>0.2163037314376864</v>
+        <v>1</v>
       </c>
       <c r="D976" t="n">
         <v>1</v>
@@ -19973,7 +19973,7 @@
         <v>0</v>
       </c>
       <c r="C977" t="n">
-        <v>0.01653132067788664</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D977" t="n">
         <v>0</v>
@@ -19993,7 +19993,7 @@
         <v>0.4</v>
       </c>
       <c r="C978" t="n">
-        <v>0.02350046068935552</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D978" t="n">
         <v>1</v>
@@ -20013,7 +20013,7 @@
         <v>0.2</v>
       </c>
       <c r="C979" t="n">
-        <v>0.2902392714465977</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D979" t="n">
         <v>1</v>
@@ -20033,7 +20033,7 @@
         <v>0</v>
       </c>
       <c r="C980" t="n">
-        <v>0.1573827736246368</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D980" t="n">
         <v>1</v>
@@ -20053,7 +20053,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C981" t="n">
-        <v>0.1159963315052143</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D981" t="n">
         <v>0</v>
@@ -20073,7 +20073,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C982" t="n">
-        <v>0.6477755693692669</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="D982" t="n">
         <v>0</v>
@@ -20093,7 +20093,7 @@
         <v>0</v>
       </c>
       <c r="C983" t="n">
-        <v>0.3991264447185245</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D983" t="n">
         <v>0</v>
@@ -20113,7 +20113,7 @@
         <v>0</v>
       </c>
       <c r="C984" t="n">
-        <v>0.2210777452631806</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D984" t="n">
         <v>0</v>
@@ -20133,7 +20133,7 @@
         <v>0</v>
       </c>
       <c r="C985" t="n">
-        <v>0.6261470336773292</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D985" t="n">
         <v>1</v>
@@ -20153,7 +20153,7 @@
         <v>0.2</v>
       </c>
       <c r="C986" t="n">
-        <v>0.1062110578326521</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D986" t="n">
         <v>0</v>
@@ -20173,7 +20173,7 @@
         <v>0.8</v>
       </c>
       <c r="C987" t="n">
-        <v>0.0746204415162037</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D987" t="n">
         <v>0</v>
@@ -20193,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="C988" t="n">
-        <v>0.01748140284296557</v>
+        <v>0</v>
       </c>
       <c r="D988" t="n">
         <v>0</v>
@@ -20213,7 +20213,7 @@
         <v>0.2</v>
       </c>
       <c r="C989" t="n">
-        <v>0.4209970745718734</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D989" t="n">
         <v>1</v>
@@ -20233,7 +20233,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C990" t="n">
-        <v>0.06838634730837209</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D990" t="n">
         <v>0</v>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="C991" t="n">
-        <v>0.03170494746597595</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D991" t="n">
         <v>1</v>
@@ -20273,7 +20273,7 @@
         <v>0</v>
       </c>
       <c r="C992" t="n">
-        <v>0.1502133887796334</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D992" t="n">
         <v>0</v>
@@ -20293,7 +20293,7 @@
         <v>0</v>
       </c>
       <c r="C993" t="n">
-        <v>0.002123490779717709</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D993" t="n">
         <v>1</v>
@@ -20313,7 +20313,7 @@
         <v>0.2</v>
       </c>
       <c r="C994" t="n">
-        <v>0.1208614338126557</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D994" t="n">
         <v>0</v>
@@ -20333,7 +20333,7 @@
         <v>0.2</v>
       </c>
       <c r="C995" t="n">
-        <v>0.08394789686189905</v>
+        <v>0.5</v>
       </c>
       <c r="D995" t="n">
         <v>1</v>
@@ -20353,7 +20353,7 @@
         <v>0.2</v>
       </c>
       <c r="C996" t="n">
-        <v>0.2084851843775601</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D996" t="n">
         <v>1</v>
@@ -20373,7 +20373,7 @@
         <v>0</v>
       </c>
       <c r="C997" t="n">
-        <v>0.1807313993003601</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D997" t="n">
         <v>0</v>
@@ -20393,7 +20393,7 @@
         <v>0</v>
       </c>
       <c r="C998" t="n">
-        <v>0.009479172417532326</v>
+        <v>0</v>
       </c>
       <c r="D998" t="n">
         <v>1</v>
@@ -20413,7 +20413,7 @@
         <v>0.2</v>
       </c>
       <c r="C999" t="n">
-        <v>0.02582307219529027</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D999" t="n">
         <v>0</v>
@@ -20433,7 +20433,7 @@
         <v>0</v>
       </c>
       <c r="C1000" t="n">
-        <v>0.3363395222533392</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D1000" t="n">
         <v>1</v>
@@ -20453,7 +20453,7 @@
         <v>0</v>
       </c>
       <c r="C1001" t="n">
-        <v>0.01229938523795777</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D1001" t="n">
         <v>0</v>
@@ -20473,7 +20473,7 @@
         <v>0.2</v>
       </c>
       <c r="C1002" t="n">
-        <v>0.1327553937227615</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D1002" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C1003" t="n">
-        <v>0.1116721940501127</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D1003" t="n">
         <v>0</v>
@@ -20513,7 +20513,7 @@
         <v>0.2</v>
       </c>
       <c r="C1004" t="n">
-        <v>0.126063963529336</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D1004" t="n">
         <v>0</v>
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="C1005" t="n">
-        <v>0.5698233323283646</v>
+        <v>0</v>
       </c>
       <c r="D1005" t="n">
         <v>0</v>
@@ -20553,7 +20553,7 @@
         <v>0.2</v>
       </c>
       <c r="C1006" t="n">
-        <v>0.09206748506734334</v>
+        <v>0.5</v>
       </c>
       <c r="D1006" t="n">
         <v>0</v>
@@ -20573,7 +20573,7 @@
         <v>0.2</v>
       </c>
       <c r="C1007" t="n">
-        <v>0.1132574057968554</v>
+        <v>0.6304347826086956</v>
       </c>
       <c r="D1007" t="n">
         <v>1</v>
@@ -20593,7 +20593,7 @@
         <v>0</v>
       </c>
       <c r="C1008" t="n">
-        <v>0.1363640824202454</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D1008" t="n">
         <v>1</v>
@@ -20613,7 +20613,7 @@
         <v>0</v>
       </c>
       <c r="C1009" t="n">
-        <v>0.009874950919925008</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D1009" t="n">
         <v>0</v>
@@ -20633,7 +20633,7 @@
         <v>0</v>
       </c>
       <c r="C1010" t="n">
-        <v>0.0163745044535366</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D1010" t="n">
         <v>0</v>
@@ -20653,7 +20653,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C1011" t="n">
-        <v>0.5608126816589656</v>
+        <v>0.08695652173913049</v>
       </c>
       <c r="D1011" t="n">
         <v>0</v>
@@ -20673,7 +20673,7 @@
         <v>0</v>
       </c>
       <c r="C1012" t="n">
-        <v>0.01461344555704138</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D1012" t="n">
         <v>0</v>
@@ -20693,7 +20693,7 @@
         <v>0</v>
       </c>
       <c r="C1013" t="n">
-        <v>0.3139485449122077</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D1013" t="n">
         <v>1</v>
@@ -20713,7 +20713,7 @@
         <v>0.2</v>
       </c>
       <c r="C1014" t="n">
-        <v>0.05231509723894566</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D1014" t="n">
         <v>0</v>
@@ -20733,7 +20733,7 @@
         <v>0.2</v>
       </c>
       <c r="C1015" t="n">
-        <v>0.8145741227539008</v>
+        <v>0.2173913043478262</v>
       </c>
       <c r="D1015" t="n">
         <v>1</v>
@@ -20753,7 +20753,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C1016" t="n">
-        <v>0.1535458659265695</v>
+        <v>0.7173913043478262</v>
       </c>
       <c r="D1016" t="n">
         <v>1</v>
@@ -20773,7 +20773,7 @@
         <v>0</v>
       </c>
       <c r="C1017" t="n">
-        <v>0.03127229791821446</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D1017" t="n">
         <v>0</v>
@@ -20793,7 +20793,7 @@
         <v>0.8</v>
       </c>
       <c r="C1018" t="n">
-        <v>0.2989189294484282</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="D1018" t="n">
         <v>1</v>
@@ -20813,7 +20813,7 @@
         <v>0.2</v>
       </c>
       <c r="C1019" t="n">
-        <v>0.1597543277220316</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D1019" t="n">
         <v>0</v>
@@ -20833,7 +20833,7 @@
         <v>0.2</v>
       </c>
       <c r="C1020" t="n">
-        <v>0.01788958312847622</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D1020" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         <v>0.4</v>
       </c>
       <c r="C1021" t="n">
-        <v>0.02731995448470276</v>
+        <v>0</v>
       </c>
       <c r="D1021" t="n">
         <v>0</v>
@@ -20873,7 +20873,7 @@
         <v>0.4</v>
       </c>
       <c r="C1022" t="n">
-        <v>0.09540796761530565</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D1022" t="n">
         <v>1</v>
@@ -20893,7 +20893,7 @@
         <v>0.2</v>
       </c>
       <c r="C1023" t="n">
-        <v>0.06884873852332771</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="D1023" t="n">
         <v>0</v>
@@ -20913,7 +20913,7 @@
         <v>0</v>
       </c>
       <c r="C1024" t="n">
-        <v>0.1621714960120856</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D1024" t="n">
         <v>0</v>
@@ -20933,7 +20933,7 @@
         <v>0</v>
       </c>
       <c r="C1025" t="n">
-        <v>0.1399179403838156</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D1025" t="n">
         <v>1</v>
@@ -20953,7 +20953,7 @@
         <v>0</v>
       </c>
       <c r="C1026" t="n">
-        <v>0.008315636751243118</v>
+        <v>0</v>
       </c>
       <c r="D1026" t="n">
         <v>0</v>
@@ -20973,7 +20973,7 @@
         <v>0.4</v>
       </c>
       <c r="C1027" t="n">
-        <v>0.4744150806766803</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="D1027" t="n">
         <v>1</v>
@@ -20993,7 +20993,7 @@
         <v>1</v>
       </c>
       <c r="C1028" t="n">
-        <v>0.06033342793951744</v>
+        <v>0.04347826086956524</v>
       </c>
       <c r="D1028" t="n">
         <v>0</v>
@@ -21013,7 +21013,7 @@
         <v>0</v>
       </c>
       <c r="C1029" t="n">
-        <v>0.006579331804090687</v>
+        <v>0.06521739130434784</v>
       </c>
       <c r="D1029" t="n">
         <v>1</v>
@@ -21033,7 +21033,7 @@
         <v>0</v>
       </c>
       <c r="C1030" t="n">
-        <v>0.1969542257248608</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D1030" t="n">
         <v>0</v>
@@ -21053,7 +21053,7 @@
         <v>0.2</v>
       </c>
       <c r="C1031" t="n">
-        <v>0.08136674148634414</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D1031" t="n">
         <v>1</v>
@@ -21073,7 +21073,7 @@
         <v>0.8</v>
       </c>
       <c r="C1032" t="n">
-        <v>0.1609425734145123</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D1032" t="n">
         <v>0</v>
@@ -21093,7 +21093,7 @@
         <v>0</v>
       </c>
       <c r="C1033" t="n">
-        <v>0.06742190227280735</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="D1033" t="n">
         <v>0</v>
@@ -21113,7 +21113,7 @@
         <v>0</v>
       </c>
       <c r="C1034" t="n">
-        <v>0.5389887896175583</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D1034" t="n">
         <v>1</v>
@@ -21133,7 +21133,7 @@
         <v>0</v>
       </c>
       <c r="C1035" t="n">
-        <v>0.02232187727677638</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D1035" t="n">
         <v>1</v>
@@ -21153,7 +21153,7 @@
         <v>0.4</v>
       </c>
       <c r="C1036" t="n">
-        <v>0.327593569575097</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D1036" t="n">
         <v>1</v>
@@ -21173,7 +21173,7 @@
         <v>0.4</v>
       </c>
       <c r="C1037" t="n">
-        <v>0.1074941344222519</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D1037" t="n">
         <v>1</v>
@@ -21193,7 +21193,7 @@
         <v>0.2</v>
       </c>
       <c r="C1038" t="n">
-        <v>0.1868850884380752</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="D1038" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         <v>0.4</v>
       </c>
       <c r="C1039" t="n">
-        <v>0.06183471962528872</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D1039" t="n">
         <v>0</v>
@@ -21233,7 +21233,7 @@
         <v>0</v>
       </c>
       <c r="C1040" t="n">
-        <v>0.2442922410222172</v>
+        <v>0.2391304347826088</v>
       </c>
       <c r="D1040" t="n">
         <v>1</v>
@@ -21253,7 +21253,7 @@
         <v>0.4</v>
       </c>
       <c r="C1041" t="n">
-        <v>0.03869692100900434</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D1041" t="n">
         <v>0</v>
@@ -21273,7 +21273,7 @@
         <v>0.2</v>
       </c>
       <c r="C1042" t="n">
-        <v>0.1731080857675578</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D1042" t="n">
         <v>1</v>
@@ -21293,7 +21293,7 @@
         <v>0.2</v>
       </c>
       <c r="C1043" t="n">
-        <v>0.0770123905968674</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D1043" t="n">
         <v>1</v>
@@ -21313,7 +21313,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C1044" t="n">
-        <v>0.3946645315624973</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D1044" t="n">
         <v>1</v>
@@ -21333,7 +21333,7 @@
         <v>0</v>
       </c>
       <c r="C1045" t="n">
-        <v>0.6483104476115805</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D1045" t="n">
         <v>0</v>
@@ -21353,7 +21353,7 @@
         <v>0</v>
       </c>
       <c r="C1046" t="n">
-        <v>0.008221902306123876</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D1046" t="n">
         <v>1</v>
@@ -21373,7 +21373,7 @@
         <v>0.4</v>
       </c>
       <c r="C1047" t="n">
-        <v>0.7017760662497537</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="D1047" t="n">
         <v>1</v>
@@ -21393,7 +21393,7 @@
         <v>0.2</v>
       </c>
       <c r="C1048" t="n">
-        <v>0.04925675749374459</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="D1048" t="n">
         <v>0</v>
@@ -21413,7 +21413,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C1049" t="n">
-        <v>0.1067299407273552</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D1049" t="n">
         <v>0</v>
@@ -21433,7 +21433,7 @@
         <v>0.2</v>
       </c>
       <c r="C1050" t="n">
-        <v>0.2799102735717219</v>
+        <v>0.1086956521739131</v>
       </c>
       <c r="D1050" t="n">
         <v>0</v>
@@ -21453,7 +21453,7 @@
         <v>0.4</v>
       </c>
       <c r="C1051" t="n">
-        <v>0.0273596325447984</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D1051" t="n">
         <v>1</v>
@@ -21473,7 +21473,7 @@
         <v>0.2</v>
       </c>
       <c r="C1052" t="n">
-        <v>0.04479934011627378</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="D1052" t="n">
         <v>1</v>
@@ -21493,7 +21493,7 @@
         <v>0</v>
       </c>
       <c r="C1053" t="n">
-        <v>0.1914428576901094</v>
+        <v>0</v>
       </c>
       <c r="D1053" t="n">
         <v>1</v>
@@ -21513,7 +21513,7 @@
         <v>0</v>
       </c>
       <c r="C1054" t="n">
-        <v>0.00227725434505012</v>
+        <v>0.02173913043478265</v>
       </c>
       <c r="D1054" t="n">
         <v>1</v>
@@ -21533,7 +21533,7 @@
         <v>0</v>
       </c>
       <c r="C1055" t="n">
-        <v>0.1075301204974606</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="D1055" t="n">
         <v>0</v>
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="C1056" t="n">
-        <v>0.2092039599071954</v>
+        <v>0.9782608695652173</v>
       </c>
       <c r="D1056" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         <v>0.4</v>
       </c>
       <c r="C1057" t="n">
-        <v>0.09453837462504407</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="D1057" t="n">
         <v>0</v>
@@ -21593,7 +21593,7 @@
         <v>0</v>
       </c>
       <c r="C1058" t="n">
-        <v>0.1902290706851287</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D1058" t="n">
         <v>0</v>
@@ -21613,7 +21613,7 @@
         <v>0.2</v>
       </c>
       <c r="C1059" t="n">
-        <v>0.03693597517395422</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="D1059" t="n">
         <v>0</v>
@@ -21633,7 +21633,7 @@
         <v>0.2</v>
       </c>
       <c r="C1060" t="n">
-        <v>0.2892683988272096</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="D1060" t="n">
         <v>0</v>
@@ -21653,7 +21653,7 @@
         <v>0</v>
       </c>
       <c r="C1061" t="n">
-        <v>0.1618861289246598</v>
+        <v>0.8260869565217392</v>
       </c>
       <c r="D1061" t="n">
         <v>0</v>
@@ -21673,7 +21673,7 @@
         <v>0.2</v>
       </c>
       <c r="C1062" t="n">
-        <v>0.7710251968331475</v>
+        <v>0.9347826086956521</v>
       </c>
       <c r="D1062" t="n">
         <v>0</v>
@@ -21693,7 +21693,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="C1063" t="n">
-        <v>0.09538860807965988</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D1063" t="n">
         <v>1</v>
@@ -21713,7 +21713,7 @@
         <v>0.2</v>
       </c>
       <c r="C1064" t="n">
-        <v>0.1968866499565354</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="D1064" t="n">
         <v>0</v>
@@ -21733,7 +21733,7 @@
         <v>0</v>
       </c>
       <c r="C1065" t="n">
-        <v>0.009496357757187122</v>
+        <v>0</v>
       </c>
       <c r="D1065" t="n">
         <v>1</v>
@@ -21753,7 +21753,7 @@
         <v>0.2</v>
       </c>
       <c r="C1066" t="n">
-        <v>0.1671063068008672</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D1066" t="n">
         <v>1</v>
@@ -21773,7 +21773,7 @@
         <v>0.8</v>
       </c>
       <c r="C1067" t="n">
-        <v>0.05595019839143109</v>
+        <v>0</v>
       </c>
       <c r="D1067" t="n">
         <v>0</v>
@@ -21793,7 +21793,7 @@
         <v>1</v>
       </c>
       <c r="C1068" t="n">
-        <v>0.1213650094891194</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="D1068" t="n">
         <v>0</v>
@@ -21813,7 +21813,7 @@
         <v>0</v>
       </c>
       <c r="C1069" t="n">
-        <v>0.1758431047556232</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="D1069" t="n">
         <v>1</v>
@@ -21833,7 +21833,7 @@
         <v>0.4</v>
       </c>
       <c r="C1070" t="n">
-        <v>0.7319164759456059</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="D1070" t="n">
         <v>0</v>
@@ -21853,7 +21853,7 @@
         <v>0</v>
       </c>
       <c r="C1071" t="n">
-        <v>0.1479195428708632</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D1071" t="n">
         <v>1</v>
